--- a/classes/BSinCS.xlsx
+++ b/classes/BSinCS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Add Classes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$H$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="390">
   <si>
     <t>Alias</t>
   </si>
@@ -1183,6 +1183,18 @@
   </si>
   <si>
     <t>https://www.edx.org/course/engineering-software-service-uc-berkeleyx-cs169-1x</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Python Data Structures</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/python-data</t>
+  </si>
+  <si>
+    <t>UOFM</t>
   </si>
 </sst>
 </file>
@@ -1419,12 +1431,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1441,9 +1452,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1470,18 +1478,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1505,29 +1503,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Helvetica"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1664,22 +1663,39 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:G12"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Artificial Intelligence" dataDxfId="8"/>
-    <tableColumn id="2" name="Computer Engineering" dataDxfId="7"/>
-    <tableColumn id="3" name="Computer Graphics" dataDxfId="6"/>
-    <tableColumn id="4" name="Cryptography" dataDxfId="5"/>
-    <tableColumn id="5" name="Data Management" dataDxfId="4"/>
-    <tableColumn id="6" name="Networking" dataDxfId="3"/>
-    <tableColumn id="7" name="OS" dataDxfId="2"/>
+    <tableColumn id="1" name="Artificial Intelligence" dataDxfId="6"/>
+    <tableColumn id="2" name="Computer Engineering" dataDxfId="5"/>
+    <tableColumn id="3" name="Computer Graphics" dataDxfId="4"/>
+    <tableColumn id="4" name="Cryptography" dataDxfId="3"/>
+    <tableColumn id="5" name="Data Management" dataDxfId="2"/>
+    <tableColumn id="6" name="Networking" dataDxfId="1"/>
+    <tableColumn id="7" name="OS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2007,1891 +2023,1911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="46" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="46" customWidth="1"/>
-    <col min="6" max="6" width="38" style="47" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="46"/>
+    <col min="2" max="2" width="14.1640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="40" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="40" customWidth="1"/>
+    <col min="6" max="6" width="38" style="41" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="40"/>
     <col min="8" max="8" width="131.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="17"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="18" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="18" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="21" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="23" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="17"/>
-      <c r="B15" s="21" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H16" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H19" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="32" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="17"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="15"/>
+      <c r="B22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D22" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H22" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="15"/>
+      <c r="B23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F23" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H23" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="15"/>
+      <c r="B24" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F24" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H24" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="26" t="s">
+    <row r="25" spans="1:8" ht="25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D25" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F25" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H25" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="17"/>
-      <c r="B25" s="26" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F26" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H26" s="26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="17"/>
-      <c r="B26" s="26" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="15"/>
+      <c r="B27" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F27" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H27" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="32" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="17"/>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D29" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E29" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F29" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H29" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="17"/>
-      <c r="B29" s="26" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="15"/>
+      <c r="B30" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D30" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E30" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F30" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G30" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H30" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17"/>
-      <c r="B30" s="26" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="15"/>
+      <c r="B31" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D31" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E31" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F31" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G31" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17"/>
-      <c r="B31" s="26" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="15"/>
+      <c r="B32" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D32" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H32" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="17"/>
-      <c r="B32" s="29" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="15"/>
+      <c r="B33" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C33" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D33" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E33" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G33" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H33" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="26" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="15"/>
+      <c r="B34" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D34" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E34" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F34" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H34" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
-      <c r="B34" s="26" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="15"/>
+      <c r="B35" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D35" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E35" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F35" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H35" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="32" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="15"/>
+      <c r="B37" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C37" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D37" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E37" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F37" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G37" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H37" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
-      <c r="B37" s="26" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="15"/>
+      <c r="B38" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C38" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D38" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E38" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F38" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G38" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H38" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="17"/>
-      <c r="B38" s="26" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="15"/>
+      <c r="B39" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C39" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D39" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E39" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F39" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G39" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H39" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="17"/>
-      <c r="B39" s="26" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="15"/>
+      <c r="B40" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C40" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D40" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E40" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F40" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G40" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H40" s="26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="17"/>
-      <c r="B40" s="29" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="15"/>
+      <c r="B41" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C41" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G41" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H41" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="17"/>
-      <c r="B41" s="26" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="15"/>
+      <c r="B42" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C42" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D42" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E42" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F42" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G42" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H42" s="26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="17"/>
-      <c r="B42" s="26" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="15"/>
+      <c r="B43" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C43" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D43" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E43" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F43" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H43" s="26" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="17"/>
-      <c r="B43" s="26" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="15"/>
+      <c r="B44" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C44" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D44" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E44" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F44" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G44" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="H44" s="26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="17"/>
-      <c r="B44" s="26" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="15"/>
+      <c r="B45" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C45" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D45" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E45" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F45" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G45" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H45" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="17"/>
-      <c r="B45" s="26" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="15"/>
+      <c r="B46" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C46" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D46" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E46" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F46" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="48" t="s">
+      <c r="G46" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H46" s="32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="32" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" ht="39">
-      <c r="A47" s="17"/>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+    </row>
+    <row r="48" spans="1:8" ht="39">
+      <c r="A48" s="15"/>
+      <c r="B48" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C48" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D48" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E48" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F48" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="17"/>
-      <c r="B48" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="52">
-      <c r="A49" s="17"/>
-      <c r="B49" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>176</v>
+    <row r="49" spans="1:8">
+      <c r="A49" s="15"/>
+      <c r="B49" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="26">
-      <c r="A50" s="17"/>
-      <c r="B50" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="36" t="s">
+    <row r="50" spans="1:8" ht="52">
+      <c r="A50" s="15"/>
+      <c r="B50" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>180</v>
+      <c r="D50" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="26">
-      <c r="A51" s="17"/>
-      <c r="B51" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>184</v>
+      <c r="A51" s="15"/>
+      <c r="B51" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>180</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="39">
-      <c r="A52" s="17"/>
-      <c r="B52" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" s="36" t="s">
+    <row r="52" spans="1:8" ht="26">
+      <c r="A52" s="15"/>
+      <c r="B52" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>188</v>
+      <c r="D52" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>184</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="26">
-      <c r="A53" s="17"/>
-      <c r="B53" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="35" t="s">
+    <row r="53" spans="1:8" ht="39">
+      <c r="A53" s="15"/>
+      <c r="B53" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>192</v>
+      <c r="D53" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>188</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="17"/>
-      <c r="B54" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="35" t="s">
+    <row r="54" spans="1:8" ht="26">
+      <c r="A54" s="15"/>
+      <c r="B54" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" s="44" t="s">
-        <v>196</v>
+      <c r="D54" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="26">
-      <c r="A55" s="17"/>
-      <c r="B55" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="35" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="15"/>
+      <c r="B55" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>199</v>
+      <c r="D55" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="45" customHeight="1">
-      <c r="A56" s="17"/>
-      <c r="B56" s="37" t="s">
+    <row r="56" spans="1:8" ht="26">
+      <c r="A56" s="15"/>
+      <c r="B56" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="45" customHeight="1">
+      <c r="A57" s="15"/>
+      <c r="B57" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C57" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D57" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E57" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F57" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="30" customHeight="1">
-      <c r="A57" s="17"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="44" t="s">
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1">
+      <c r="A58" s="15"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="45" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="37" t="s">
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+    </row>
+    <row r="59" spans="1:8" ht="45" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C59" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D59" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E59" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F59" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
-      <c r="A59" s="17"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="44" t="s">
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1">
+      <c r="A60" s="15"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="39">
-      <c r="A60" s="17"/>
-      <c r="B60" s="36" t="s">
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="1:8" ht="39">
+      <c r="A61" s="15"/>
+      <c r="B61" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C61" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D61" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E61" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F61" s="39" t="s">
         <v>214</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" ht="26">
-      <c r="A61" s="17"/>
-      <c r="B61" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>217</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="26">
-      <c r="A62" s="17"/>
-      <c r="B62" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="36" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>220</v>
+      <c r="E62" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="17"/>
-      <c r="B63" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>225</v>
+    <row r="63" spans="1:8" ht="26">
+      <c r="A63" s="15"/>
+      <c r="B63" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>220</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="26">
-      <c r="A64" s="17"/>
-      <c r="B64" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>230</v>
+    <row r="64" spans="1:8">
+      <c r="A64" s="15"/>
+      <c r="B64" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>225</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="26">
-      <c r="A65" s="17"/>
-      <c r="B65" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="C65" s="36" t="s">
+      <c r="A65" s="15"/>
+      <c r="B65" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="D65" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>233</v>
+      <c r="D65" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>230</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="17"/>
-      <c r="B66" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C66" s="36" t="s">
+    <row r="66" spans="1:8" ht="26">
+      <c r="A66" s="15"/>
+      <c r="B66" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="D66" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="F66" s="45" t="s">
-        <v>237</v>
+      <c r="D66" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>233</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="26">
-      <c r="A67" s="17"/>
-      <c r="B67" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="E67" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>242</v>
+    <row r="67" spans="1:8">
+      <c r="A67" s="15"/>
+      <c r="B67" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>237</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="26">
-      <c r="A68" s="17"/>
-      <c r="B68" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="36" t="s">
+      <c r="A68" s="15"/>
+      <c r="B68" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="D68" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="F68" s="45" t="s">
-        <v>245</v>
+      <c r="D68" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="39" t="s">
+        <v>242</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="17"/>
-      <c r="B69" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C69" s="35" t="s">
+    <row r="69" spans="1:8" ht="26">
+      <c r="A69" s="15"/>
+      <c r="B69" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E69" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="F69" s="44" t="s">
-        <v>248</v>
+      <c r="E69" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="52">
-      <c r="A70" s="17"/>
-      <c r="B70" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="F70" s="45" t="s">
-        <v>253</v>
+    <row r="70" spans="1:8">
+      <c r="A70" s="15"/>
+      <c r="B70" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>248</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="17"/>
-      <c r="B71" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C71" s="36" t="s">
+    <row r="71" spans="1:8" ht="52">
+      <c r="A71" s="15"/>
+      <c r="B71" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="D71" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="F71" s="45" t="s">
-        <v>256</v>
+      <c r="D71" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>253</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="17"/>
-      <c r="B72" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C72" s="35" t="s">
+      <c r="A72" s="15"/>
+      <c r="B72" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="F72" s="44" t="s">
-        <v>259</v>
+      <c r="E72" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>256</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="26">
-      <c r="A73" s="17"/>
-      <c r="B73" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>264</v>
+    <row r="73" spans="1:8">
+      <c r="A73" s="15"/>
+      <c r="B73" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="39">
-      <c r="A74" s="17"/>
-      <c r="B74" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C74" s="35" t="s">
+    <row r="74" spans="1:8" ht="26">
+      <c r="A74" s="15"/>
+      <c r="B74" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D74" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" s="35" t="s">
+      <c r="D74" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="F74" s="44" t="s">
-        <v>266</v>
+      <c r="F74" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="17"/>
-      <c r="B75" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="36" t="s">
+    <row r="75" spans="1:8" ht="39">
+      <c r="A75" s="15"/>
+      <c r="B75" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D75" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>269</v>
+      <c r="D75" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="17"/>
-      <c r="B76" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F76" s="44" t="s">
-        <v>273</v>
+      <c r="A76" s="15"/>
+      <c r="B76" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>269</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="17"/>
-      <c r="B77" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="C77" s="35" t="s">
+      <c r="A77" s="15"/>
+      <c r="B77" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="35" t="s">
+      <c r="D77" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F77" s="44" t="s">
-        <v>275</v>
+      <c r="F77" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="39">
-      <c r="A78" s="17"/>
-      <c r="B78" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="F78" s="44" t="s">
-        <v>280</v>
+    <row r="78" spans="1:8">
+      <c r="A78" s="15"/>
+      <c r="B78" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>275</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="26">
-      <c r="A79" s="17"/>
-      <c r="B79" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C79" s="35" t="s">
+    <row r="79" spans="1:8" ht="39">
+      <c r="A79" s="15"/>
+      <c r="B79" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="D79" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="F79" s="44" t="s">
-        <v>284</v>
+      <c r="D79" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>280</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" ht="26">
-      <c r="A80" s="17"/>
-      <c r="B80" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="C80" s="35" t="s">
+      <c r="A80" s="15"/>
+      <c r="B80" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="D80" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="35" t="s">
+      <c r="D80" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="F80" s="44" t="s">
-        <v>286</v>
+      <c r="F80" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="39">
-      <c r="A81" s="17"/>
-      <c r="B81" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="E81" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>291</v>
+    <row r="81" spans="1:8" ht="26">
+      <c r="A81" s="15"/>
+      <c r="B81" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>286</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="26">
-      <c r="A82" s="17"/>
-      <c r="B82" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="C82" s="35" t="s">
+    <row r="82" spans="1:8" ht="39">
+      <c r="A82" s="15"/>
+      <c r="B82" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="F82" s="44" t="s">
-        <v>295</v>
+      <c r="D82" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" s="39" t="s">
+        <v>291</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="17"/>
-      <c r="B83" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="1:8" ht="26">
+      <c r="A83" s="15"/>
+      <c r="B83" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D83" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="F83" s="45" t="s">
-        <v>298</v>
+      <c r="D83" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>295</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="39">
-      <c r="A84" s="17"/>
-      <c r="B84" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="E84" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="F84" s="45" t="s">
-        <v>303</v>
+    <row r="84" spans="1:8">
+      <c r="A84" s="15"/>
+      <c r="B84" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" s="39" t="s">
+        <v>298</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="52">
-      <c r="A85" s="17"/>
-      <c r="B85" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="C85" s="36" t="s">
+    <row r="85" spans="1:8" ht="39">
+      <c r="A85" s="15"/>
+      <c r="B85" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="D85" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="E85" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="F85" s="45" t="s">
-        <v>307</v>
+      <c r="D85" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F85" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="26">
-      <c r="A86" s="17"/>
-      <c r="B86" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C86" s="35" t="s">
+    <row r="86" spans="1:8" ht="52">
+      <c r="A86" s="15"/>
+      <c r="B86" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="D86" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="F86" s="44" t="s">
-        <v>311</v>
+      <c r="D86" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8" ht="26">
-      <c r="A87" s="17"/>
-      <c r="B87" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="C87" s="36" t="s">
+      <c r="A87" s="15"/>
+      <c r="B87" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="D87" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="E87" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="F87" s="45" t="s">
-        <v>315</v>
+      <c r="D87" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>311</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="5"/>
+    <row r="88" spans="1:8" ht="26">
+      <c r="A88" s="15"/>
+      <c r="B88" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="F88" s="39" t="s">
+        <v>315</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
+    <row r="89" spans="1:8">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H87"/>
+  <autoFilter ref="A1:H88"/>
   <mergeCells count="23">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
@@ -3901,79 +3937,80 @@
     <hyperlink ref="H10" r:id="rId5"/>
     <hyperlink ref="H12" r:id="rId6"/>
     <hyperlink ref="H13" r:id="rId7"/>
-    <hyperlink ref="H14" r:id="rId8"/>
-    <hyperlink ref="H15" r:id="rId9"/>
-    <hyperlink ref="H16" r:id="rId10"/>
-    <hyperlink ref="H17" r:id="rId11"/>
-    <hyperlink ref="H18" r:id="rId12"/>
-    <hyperlink ref="H19" r:id="rId13"/>
-    <hyperlink ref="H21" r:id="rId14"/>
-    <hyperlink ref="H22" r:id="rId15"/>
-    <hyperlink ref="H23" r:id="rId16"/>
-    <hyperlink ref="H24" r:id="rId17"/>
-    <hyperlink ref="H25" r:id="rId18"/>
-    <hyperlink ref="H26" r:id="rId19"/>
-    <hyperlink ref="H28" r:id="rId20"/>
-    <hyperlink ref="H29" r:id="rId21"/>
-    <hyperlink ref="H30" r:id="rId22"/>
-    <hyperlink ref="H31" r:id="rId23"/>
-    <hyperlink ref="H32" r:id="rId24"/>
-    <hyperlink ref="H33" r:id="rId25"/>
-    <hyperlink ref="H34" r:id="rId26"/>
-    <hyperlink ref="H36" r:id="rId27"/>
-    <hyperlink ref="H37" r:id="rId28"/>
-    <hyperlink ref="H38" r:id="rId29"/>
-    <hyperlink ref="H39" r:id="rId30"/>
-    <hyperlink ref="H40" r:id="rId31"/>
-    <hyperlink ref="H41" r:id="rId32"/>
-    <hyperlink ref="H42" r:id="rId33"/>
-    <hyperlink ref="H43" r:id="rId34"/>
-    <hyperlink ref="H44" r:id="rId35"/>
-    <hyperlink ref="H45" r:id="rId36"/>
-    <hyperlink ref="F47" r:id="rId37"/>
-    <hyperlink ref="F48" r:id="rId38"/>
-    <hyperlink ref="F49" r:id="rId39"/>
-    <hyperlink ref="F50" r:id="rId40"/>
-    <hyperlink ref="F51" r:id="rId41"/>
-    <hyperlink ref="F52" r:id="rId42"/>
-    <hyperlink ref="F53" r:id="rId43"/>
-    <hyperlink ref="F54" r:id="rId44"/>
-    <hyperlink ref="F55" r:id="rId45"/>
-    <hyperlink ref="F56" r:id="rId46"/>
-    <hyperlink ref="F57" r:id="rId47"/>
-    <hyperlink ref="F58" r:id="rId48"/>
-    <hyperlink ref="F59" r:id="rId49"/>
-    <hyperlink ref="F60" r:id="rId50"/>
-    <hyperlink ref="F61" r:id="rId51"/>
-    <hyperlink ref="F62" r:id="rId52"/>
-    <hyperlink ref="F63" r:id="rId53"/>
-    <hyperlink ref="F64" r:id="rId54"/>
-    <hyperlink ref="F65" r:id="rId55"/>
-    <hyperlink ref="F66" r:id="rId56"/>
-    <hyperlink ref="F67" r:id="rId57"/>
-    <hyperlink ref="F68" r:id="rId58"/>
-    <hyperlink ref="F69" r:id="rId59"/>
-    <hyperlink ref="F70" r:id="rId60"/>
-    <hyperlink ref="F71" r:id="rId61"/>
-    <hyperlink ref="F72" r:id="rId62"/>
-    <hyperlink ref="F73" r:id="rId63"/>
-    <hyperlink ref="F74" r:id="rId64"/>
-    <hyperlink ref="F75" r:id="rId65"/>
-    <hyperlink ref="F76" r:id="rId66"/>
-    <hyperlink ref="F77" r:id="rId67"/>
-    <hyperlink ref="F78" r:id="rId68"/>
-    <hyperlink ref="F79" r:id="rId69"/>
-    <hyperlink ref="F80" r:id="rId70"/>
-    <hyperlink ref="F81" r:id="rId71"/>
-    <hyperlink ref="F82" r:id="rId72"/>
-    <hyperlink ref="F83" r:id="rId73"/>
-    <hyperlink ref="F84" r:id="rId74"/>
-    <hyperlink ref="F85" r:id="rId75"/>
-    <hyperlink ref="F86" r:id="rId76"/>
-    <hyperlink ref="F87" r:id="rId77"/>
+    <hyperlink ref="H15" r:id="rId8"/>
+    <hyperlink ref="H16" r:id="rId9"/>
+    <hyperlink ref="H17" r:id="rId10"/>
+    <hyperlink ref="H18" r:id="rId11"/>
+    <hyperlink ref="H19" r:id="rId12"/>
+    <hyperlink ref="H20" r:id="rId13"/>
+    <hyperlink ref="H22" r:id="rId14"/>
+    <hyperlink ref="H23" r:id="rId15"/>
+    <hyperlink ref="H24" r:id="rId16"/>
+    <hyperlink ref="H25" r:id="rId17"/>
+    <hyperlink ref="H26" r:id="rId18"/>
+    <hyperlink ref="H27" r:id="rId19"/>
+    <hyperlink ref="H29" r:id="rId20"/>
+    <hyperlink ref="H30" r:id="rId21"/>
+    <hyperlink ref="H31" r:id="rId22"/>
+    <hyperlink ref="H32" r:id="rId23"/>
+    <hyperlink ref="H33" r:id="rId24"/>
+    <hyperlink ref="H34" r:id="rId25"/>
+    <hyperlink ref="H35" r:id="rId26"/>
+    <hyperlink ref="H37" r:id="rId27"/>
+    <hyperlink ref="H38" r:id="rId28"/>
+    <hyperlink ref="H39" r:id="rId29"/>
+    <hyperlink ref="H40" r:id="rId30"/>
+    <hyperlink ref="H41" r:id="rId31"/>
+    <hyperlink ref="H42" r:id="rId32"/>
+    <hyperlink ref="H43" r:id="rId33"/>
+    <hyperlink ref="H44" r:id="rId34"/>
+    <hyperlink ref="H45" r:id="rId35"/>
+    <hyperlink ref="H46" r:id="rId36"/>
+    <hyperlink ref="F48" r:id="rId37"/>
+    <hyperlink ref="F49" r:id="rId38"/>
+    <hyperlink ref="F50" r:id="rId39"/>
+    <hyperlink ref="F51" r:id="rId40"/>
+    <hyperlink ref="F52" r:id="rId41"/>
+    <hyperlink ref="F53" r:id="rId42"/>
+    <hyperlink ref="F54" r:id="rId43"/>
+    <hyperlink ref="F55" r:id="rId44"/>
+    <hyperlink ref="F56" r:id="rId45"/>
+    <hyperlink ref="F57" r:id="rId46"/>
+    <hyperlink ref="F58" r:id="rId47"/>
+    <hyperlink ref="F59" r:id="rId48"/>
+    <hyperlink ref="F60" r:id="rId49"/>
+    <hyperlink ref="F61" r:id="rId50"/>
+    <hyperlink ref="F62" r:id="rId51"/>
+    <hyperlink ref="F63" r:id="rId52"/>
+    <hyperlink ref="F64" r:id="rId53"/>
+    <hyperlink ref="F65" r:id="rId54"/>
+    <hyperlink ref="F66" r:id="rId55"/>
+    <hyperlink ref="F67" r:id="rId56"/>
+    <hyperlink ref="F68" r:id="rId57"/>
+    <hyperlink ref="F69" r:id="rId58"/>
+    <hyperlink ref="F70" r:id="rId59"/>
+    <hyperlink ref="F71" r:id="rId60"/>
+    <hyperlink ref="F72" r:id="rId61"/>
+    <hyperlink ref="F73" r:id="rId62"/>
+    <hyperlink ref="F74" r:id="rId63"/>
+    <hyperlink ref="F75" r:id="rId64"/>
+    <hyperlink ref="F76" r:id="rId65"/>
+    <hyperlink ref="F77" r:id="rId66"/>
+    <hyperlink ref="F78" r:id="rId67"/>
+    <hyperlink ref="F79" r:id="rId68"/>
+    <hyperlink ref="F80" r:id="rId69"/>
+    <hyperlink ref="F81" r:id="rId70"/>
+    <hyperlink ref="F82" r:id="rId71"/>
+    <hyperlink ref="F83" r:id="rId72"/>
+    <hyperlink ref="F84" r:id="rId73"/>
+    <hyperlink ref="F85" r:id="rId74"/>
+    <hyperlink ref="F86" r:id="rId75"/>
+    <hyperlink ref="F87" r:id="rId76"/>
+    <hyperlink ref="F88" r:id="rId77"/>
     <hyperlink ref="H5" r:id="rId78"/>
     <hyperlink ref="H7" r:id="rId79"/>
     <hyperlink ref="H6" r:id="rId80"/>
+    <hyperlink ref="H14" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3999,37 +4036,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4176,36 +4213,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4464,79 +4501,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="40.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="65" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>365</v>
       </c>
     </row>

--- a/classes/BSinCS.xlsx
+++ b/classes/BSinCS.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Add Classes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$H$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$H$89</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="391">
   <si>
     <t>Alias</t>
   </si>
@@ -1195,13 +1195,16 @@
   </si>
   <si>
     <t>UOFM</t>
+  </si>
+  <si>
+    <t>Internet History, Technology, and Security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1257,6 +1260,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1427,11 +1438,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1503,8 +1515,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1512,17 +1525,21 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2023,13 +2040,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2070,16 +2087,16 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="15"/>
@@ -2349,260 +2366,254 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>42</v>
-      </c>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
+      <c r="B16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>45</v>
+      <c r="F16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>50</v>
+      <c r="B17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="43" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="15"/>
-      <c r="B22" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="15"/>
       <c r="B24" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="25">
       <c r="A26" s="15"/>
       <c r="B26" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>67</v>
@@ -2611,560 +2622,564 @@
         <v>10</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="15"/>
       <c r="B27" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H27" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="15"/>
+      <c r="B28" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="43" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="15"/>
-      <c r="B29" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="15"/>
       <c r="B31" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="15"/>
       <c r="B32" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="15"/>
-      <c r="B33" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="27" t="s">
+      <c r="B33" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>111</v>
+      <c r="E33" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="15"/>
-      <c r="B34" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>115</v>
+      <c r="B34" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="15"/>
       <c r="B35" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>113</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>113</v>
       </c>
       <c r="G35" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="15"/>
+      <c r="B36" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="D36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="43" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="15"/>
-      <c r="B37" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>124</v>
-      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="15"/>
       <c r="B38" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>121</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="15"/>
       <c r="B39" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>129</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="15"/>
-      <c r="B41" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>140</v>
+      <c r="B41" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="15"/>
-      <c r="B42" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>145</v>
+      <c r="B42" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="15"/>
       <c r="B43" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>142</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="15"/>
       <c r="B44" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="15"/>
       <c r="B45" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="15"/>
       <c r="B46" s="24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>156</v>
       </c>
       <c r="E46" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="15"/>
+      <c r="B47" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F47" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G47" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H47" s="32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="43" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-    </row>
-    <row r="48" spans="1:8" ht="39">
-      <c r="A48" s="15"/>
-      <c r="B48" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" spans="1:8" ht="39">
       <c r="A49" s="15"/>
       <c r="B49" s="30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="52">
+    <row r="50" spans="1:8">
       <c r="A50" s="15"/>
-      <c r="B50" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>176</v>
+      <c r="B50" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="26">
+    <row r="51" spans="1:8" ht="52">
       <c r="A51" s="15"/>
       <c r="B51" s="31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>173</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3172,203 +3187,203 @@
     <row r="52" spans="1:8" ht="26">
       <c r="A52" s="15"/>
       <c r="B52" s="31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="39">
+    <row r="53" spans="1:8" ht="26">
       <c r="A53" s="15"/>
       <c r="B53" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="26">
+    <row r="54" spans="1:8" ht="39">
       <c r="A54" s="15"/>
-      <c r="B54" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C54" s="30" t="s">
+      <c r="B54" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>192</v>
+      <c r="D54" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>188</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="26">
       <c r="A55" s="15"/>
       <c r="B55" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="26">
+    <row r="56" spans="1:8">
       <c r="A56" s="15"/>
       <c r="B56" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="45" customHeight="1">
+    <row r="57" spans="1:8" ht="26">
       <c r="A57" s="15"/>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="45" customHeight="1">
+      <c r="A58" s="15"/>
+      <c r="B58" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C58" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D58" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E58" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F58" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-    </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="38" t="s">
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+    </row>
+    <row r="59" spans="1:8" ht="30" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-    </row>
-    <row r="59" spans="1:8" ht="45" customHeight="1">
-      <c r="A59" s="15"/>
-      <c r="B59" s="47" t="s">
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+    </row>
+    <row r="60" spans="1:8" ht="45" customHeight="1">
+      <c r="A60" s="15"/>
+      <c r="B60" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C60" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="47" t="s">
+      <c r="D60" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E60" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F60" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="38" t="s">
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1">
+      <c r="A61" s="15"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-    </row>
-    <row r="61" spans="1:8" ht="39">
-      <c r="A61" s="15"/>
-      <c r="B61" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" ht="26">
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+    </row>
+    <row r="62" spans="1:8" ht="39">
       <c r="A62" s="15"/>
       <c r="B62" s="31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>211</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3376,7 +3391,7 @@
     <row r="63" spans="1:8" ht="26">
       <c r="A63" s="15"/>
       <c r="B63" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>211</v>
@@ -3385,50 +3400,50 @@
         <v>96</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" ht="26">
       <c r="A64" s="15"/>
       <c r="B64" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="26">
+    <row r="65" spans="1:8">
       <c r="A65" s="15"/>
       <c r="B65" s="31" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -3436,59 +3451,59 @@
     <row r="66" spans="1:8" ht="26">
       <c r="A66" s="15"/>
       <c r="B66" s="31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>227</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="26">
       <c r="A67" s="15"/>
       <c r="B67" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>227</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="26">
+    <row r="68" spans="1:8">
       <c r="A68" s="15"/>
       <c r="B68" s="31" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3496,179 +3511,179 @@
     <row r="69" spans="1:8" ht="26">
       <c r="A69" s="15"/>
       <c r="B69" s="31" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>239</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="26">
       <c r="A70" s="15"/>
-      <c r="B70" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C70" s="30" t="s">
+      <c r="B70" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>248</v>
+      <c r="E70" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="52">
+    <row r="71" spans="1:8">
       <c r="A71" s="15"/>
-      <c r="B71" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>253</v>
+      <c r="B71" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>248</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="52">
       <c r="A72" s="15"/>
       <c r="B72" s="31" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>250</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="15"/>
-      <c r="B73" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C73" s="30" t="s">
+      <c r="B73" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>259</v>
+      <c r="E73" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>256</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="26">
+    <row r="74" spans="1:8">
       <c r="A74" s="15"/>
-      <c r="B74" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>264</v>
+      <c r="B74" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="39">
+    <row r="75" spans="1:8" ht="26">
       <c r="A75" s="15"/>
-      <c r="B75" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="30" t="s">
+      <c r="B75" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D75" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" s="30" t="s">
+      <c r="D75" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="F75" s="38" t="s">
-        <v>266</v>
+      <c r="F75" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="39">
       <c r="A76" s="15"/>
-      <c r="B76" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C76" s="31" t="s">
+      <c r="B76" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D76" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F76" s="39" t="s">
-        <v>269</v>
+      <c r="D76" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="15"/>
-      <c r="B77" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>273</v>
+      <c r="B77" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>269</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -3676,59 +3691,59 @@
     <row r="78" spans="1:8">
       <c r="A78" s="15"/>
       <c r="B78" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>271</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="E78" s="30" t="s">
         <v>271</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="39">
+    <row r="79" spans="1:8">
       <c r="A79" s="15"/>
       <c r="B79" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="26">
+    <row r="80" spans="1:8" ht="39">
       <c r="A80" s="15"/>
       <c r="B80" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C80" s="30" t="s">
         <v>277</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3736,198 +3751,218 @@
     <row r="81" spans="1:8" ht="26">
       <c r="A81" s="15"/>
       <c r="B81" s="30" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C81" s="30" t="s">
         <v>277</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>283</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="39">
+    <row r="82" spans="1:8" ht="26">
       <c r="A82" s="15"/>
-      <c r="B82" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="F82" s="39" t="s">
-        <v>291</v>
+      <c r="B82" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>286</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" ht="26">
+    <row r="83" spans="1:8" ht="39">
       <c r="A83" s="15"/>
-      <c r="B83" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="C83" s="30" t="s">
+      <c r="B83" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="D83" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="F83" s="38" t="s">
-        <v>295</v>
+      <c r="D83" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>291</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="26">
       <c r="A84" s="15"/>
-      <c r="B84" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="C84" s="31" t="s">
+      <c r="B84" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D84" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F84" s="39" t="s">
-        <v>298</v>
+      <c r="D84" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>295</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="39">
+    <row r="85" spans="1:8">
       <c r="A85" s="15"/>
       <c r="B85" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="52">
+    <row r="86" spans="1:8" ht="39">
       <c r="A86" s="15"/>
       <c r="B86" s="31" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>300</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" ht="26">
+    <row r="87" spans="1:8" ht="52">
       <c r="A87" s="15"/>
-      <c r="B87" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C87" s="30" t="s">
+      <c r="B87" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="D87" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="F87" s="38" t="s">
-        <v>311</v>
+      <c r="D87" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="26">
       <c r="A88" s="15"/>
-      <c r="B88" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C88" s="31" t="s">
+      <c r="B88" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="D88" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="F88" s="39" t="s">
-        <v>315</v>
+      <c r="D88" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>311</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="4"/>
+    <row r="89" spans="1:8" ht="26">
+      <c r="A89" s="15"/>
+      <c r="B89" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="F89" s="39" t="s">
+        <v>315</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
+    <row r="90" spans="1:8">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H88"/>
+  <autoFilter ref="A1:H89"/>
   <mergeCells count="23">
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
@@ -3937,76 +3972,76 @@
     <hyperlink ref="H10" r:id="rId5"/>
     <hyperlink ref="H12" r:id="rId6"/>
     <hyperlink ref="H13" r:id="rId7"/>
-    <hyperlink ref="H15" r:id="rId8"/>
-    <hyperlink ref="H16" r:id="rId9"/>
-    <hyperlink ref="H17" r:id="rId10"/>
-    <hyperlink ref="H18" r:id="rId11"/>
-    <hyperlink ref="H19" r:id="rId12"/>
-    <hyperlink ref="H20" r:id="rId13"/>
-    <hyperlink ref="H22" r:id="rId14"/>
-    <hyperlink ref="H23" r:id="rId15"/>
-    <hyperlink ref="H24" r:id="rId16"/>
-    <hyperlink ref="H25" r:id="rId17"/>
-    <hyperlink ref="H26" r:id="rId18"/>
-    <hyperlink ref="H27" r:id="rId19"/>
-    <hyperlink ref="H29" r:id="rId20"/>
-    <hyperlink ref="H30" r:id="rId21"/>
-    <hyperlink ref="H31" r:id="rId22"/>
-    <hyperlink ref="H32" r:id="rId23"/>
-    <hyperlink ref="H33" r:id="rId24"/>
-    <hyperlink ref="H34" r:id="rId25"/>
-    <hyperlink ref="H35" r:id="rId26"/>
-    <hyperlink ref="H37" r:id="rId27"/>
-    <hyperlink ref="H38" r:id="rId28"/>
-    <hyperlink ref="H39" r:id="rId29"/>
-    <hyperlink ref="H40" r:id="rId30"/>
-    <hyperlink ref="H41" r:id="rId31"/>
-    <hyperlink ref="H42" r:id="rId32"/>
-    <hyperlink ref="H43" r:id="rId33"/>
-    <hyperlink ref="H44" r:id="rId34"/>
-    <hyperlink ref="H45" r:id="rId35"/>
-    <hyperlink ref="H46" r:id="rId36"/>
-    <hyperlink ref="F48" r:id="rId37"/>
-    <hyperlink ref="F49" r:id="rId38"/>
-    <hyperlink ref="F50" r:id="rId39"/>
-    <hyperlink ref="F51" r:id="rId40"/>
-    <hyperlink ref="F52" r:id="rId41"/>
-    <hyperlink ref="F53" r:id="rId42"/>
-    <hyperlink ref="F54" r:id="rId43"/>
-    <hyperlink ref="F55" r:id="rId44"/>
-    <hyperlink ref="F56" r:id="rId45"/>
-    <hyperlink ref="F57" r:id="rId46"/>
-    <hyperlink ref="F58" r:id="rId47"/>
-    <hyperlink ref="F59" r:id="rId48"/>
-    <hyperlink ref="F60" r:id="rId49"/>
-    <hyperlink ref="F61" r:id="rId50"/>
-    <hyperlink ref="F62" r:id="rId51"/>
-    <hyperlink ref="F63" r:id="rId52"/>
-    <hyperlink ref="F64" r:id="rId53"/>
-    <hyperlink ref="F65" r:id="rId54"/>
-    <hyperlink ref="F66" r:id="rId55"/>
-    <hyperlink ref="F67" r:id="rId56"/>
-    <hyperlink ref="F68" r:id="rId57"/>
-    <hyperlink ref="F69" r:id="rId58"/>
-    <hyperlink ref="F70" r:id="rId59"/>
-    <hyperlink ref="F71" r:id="rId60"/>
-    <hyperlink ref="F72" r:id="rId61"/>
-    <hyperlink ref="F73" r:id="rId62"/>
-    <hyperlink ref="F74" r:id="rId63"/>
-    <hyperlink ref="F75" r:id="rId64"/>
-    <hyperlink ref="F76" r:id="rId65"/>
-    <hyperlink ref="F77" r:id="rId66"/>
-    <hyperlink ref="F78" r:id="rId67"/>
-    <hyperlink ref="F79" r:id="rId68"/>
-    <hyperlink ref="F80" r:id="rId69"/>
-    <hyperlink ref="F81" r:id="rId70"/>
-    <hyperlink ref="F82" r:id="rId71"/>
-    <hyperlink ref="F83" r:id="rId72"/>
-    <hyperlink ref="F84" r:id="rId73"/>
-    <hyperlink ref="F85" r:id="rId74"/>
-    <hyperlink ref="F86" r:id="rId75"/>
-    <hyperlink ref="F87" r:id="rId76"/>
-    <hyperlink ref="F88" r:id="rId77"/>
+    <hyperlink ref="H16" r:id="rId8"/>
+    <hyperlink ref="H17" r:id="rId9"/>
+    <hyperlink ref="H18" r:id="rId10"/>
+    <hyperlink ref="H19" r:id="rId11"/>
+    <hyperlink ref="H20" r:id="rId12"/>
+    <hyperlink ref="H21" r:id="rId13"/>
+    <hyperlink ref="H23" r:id="rId14"/>
+    <hyperlink ref="H24" r:id="rId15"/>
+    <hyperlink ref="H25" r:id="rId16"/>
+    <hyperlink ref="H26" r:id="rId17"/>
+    <hyperlink ref="H27" r:id="rId18"/>
+    <hyperlink ref="H28" r:id="rId19"/>
+    <hyperlink ref="H30" r:id="rId20"/>
+    <hyperlink ref="H31" r:id="rId21"/>
+    <hyperlink ref="H32" r:id="rId22"/>
+    <hyperlink ref="H33" r:id="rId23"/>
+    <hyperlink ref="H34" r:id="rId24"/>
+    <hyperlink ref="H35" r:id="rId25"/>
+    <hyperlink ref="H36" r:id="rId26"/>
+    <hyperlink ref="H38" r:id="rId27"/>
+    <hyperlink ref="H39" r:id="rId28"/>
+    <hyperlink ref="H40" r:id="rId29"/>
+    <hyperlink ref="H41" r:id="rId30"/>
+    <hyperlink ref="H42" r:id="rId31"/>
+    <hyperlink ref="H43" r:id="rId32"/>
+    <hyperlink ref="H44" r:id="rId33"/>
+    <hyperlink ref="H45" r:id="rId34"/>
+    <hyperlink ref="H46" r:id="rId35"/>
+    <hyperlink ref="H47" r:id="rId36"/>
+    <hyperlink ref="F49" r:id="rId37"/>
+    <hyperlink ref="F50" r:id="rId38"/>
+    <hyperlink ref="F51" r:id="rId39"/>
+    <hyperlink ref="F52" r:id="rId40"/>
+    <hyperlink ref="F53" r:id="rId41"/>
+    <hyperlink ref="F54" r:id="rId42"/>
+    <hyperlink ref="F55" r:id="rId43"/>
+    <hyperlink ref="F56" r:id="rId44"/>
+    <hyperlink ref="F57" r:id="rId45"/>
+    <hyperlink ref="F58" r:id="rId46"/>
+    <hyperlink ref="F59" r:id="rId47"/>
+    <hyperlink ref="F60" r:id="rId48"/>
+    <hyperlink ref="F61" r:id="rId49"/>
+    <hyperlink ref="F62" r:id="rId50"/>
+    <hyperlink ref="F63" r:id="rId51"/>
+    <hyperlink ref="F64" r:id="rId52"/>
+    <hyperlink ref="F65" r:id="rId53"/>
+    <hyperlink ref="F66" r:id="rId54"/>
+    <hyperlink ref="F67" r:id="rId55"/>
+    <hyperlink ref="F68" r:id="rId56"/>
+    <hyperlink ref="F69" r:id="rId57"/>
+    <hyperlink ref="F70" r:id="rId58"/>
+    <hyperlink ref="F71" r:id="rId59"/>
+    <hyperlink ref="F72" r:id="rId60"/>
+    <hyperlink ref="F73" r:id="rId61"/>
+    <hyperlink ref="F74" r:id="rId62"/>
+    <hyperlink ref="F75" r:id="rId63"/>
+    <hyperlink ref="F76" r:id="rId64"/>
+    <hyperlink ref="F77" r:id="rId65"/>
+    <hyperlink ref="F78" r:id="rId66"/>
+    <hyperlink ref="F79" r:id="rId67"/>
+    <hyperlink ref="F80" r:id="rId68"/>
+    <hyperlink ref="F81" r:id="rId69"/>
+    <hyperlink ref="F82" r:id="rId70"/>
+    <hyperlink ref="F83" r:id="rId71"/>
+    <hyperlink ref="F84" r:id="rId72"/>
+    <hyperlink ref="F85" r:id="rId73"/>
+    <hyperlink ref="F86" r:id="rId74"/>
+    <hyperlink ref="F87" r:id="rId75"/>
+    <hyperlink ref="F88" r:id="rId76"/>
+    <hyperlink ref="F89" r:id="rId77"/>
     <hyperlink ref="H5" r:id="rId78"/>
     <hyperlink ref="H7" r:id="rId79"/>
     <hyperlink ref="H6" r:id="rId80"/>
@@ -4213,15 +4248,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">

--- a/classes/BSinCS.xlsx
+++ b/classes/BSinCS.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Add Classes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$H$91</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="396">
   <si>
     <t>Alias</t>
   </si>
@@ -1198,6 +1198,21 @@
   </si>
   <si>
     <t>Internet History, Technology, and Security</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/python-network-data</t>
+  </si>
+  <si>
+    <t>Using Python to Access Web Data</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/internet-history</t>
+  </si>
+  <si>
+    <t>Using Databases with Python</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/python-databases</t>
   </si>
 </sst>
 </file>
@@ -1438,12 +1453,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1519,6 +1536,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1538,8 +1563,10 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2040,13 +2067,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:E15"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2087,16 +2114,16 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="15"/>
@@ -2312,20 +2339,20 @@
       <c r="A12" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="52" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -2336,12 +2363,12 @@
       <c r="A13" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="21" t="s">
         <v>37</v>
       </c>
@@ -2382,904 +2409,906 @@
         <v>390</v>
       </c>
       <c r="G15" s="43"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="H15" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G17" s="47"/>
       <c r="H17" s="21" t="s">
-        <v>45</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>55</v>
+      <c r="B19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="15"/>
-      <c r="B23" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="B23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>69</v>
+      <c r="E23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="15"/>
-      <c r="B24" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>73</v>
-      </c>
+      <c r="A24" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="15"/>
       <c r="B26" s="24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="15"/>
       <c r="B27" s="24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="25">
       <c r="A28" s="15"/>
       <c r="B28" s="24" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="15"/>
-      <c r="B31" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>98</v>
-      </c>
+      <c r="A31" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="15"/>
       <c r="B32" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="15"/>
       <c r="B33" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="15"/>
-      <c r="B34" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>111</v>
+      <c r="B34" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="15"/>
       <c r="B35" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="15"/>
-      <c r="B36" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="B36" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="15"/>
+      <c r="B37" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="25" t="s">
+      <c r="E37" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
+      <c r="G37" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="15"/>
       <c r="B38" s="24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="15"/>
-      <c r="B39" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>127</v>
-      </c>
+      <c r="A39" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="15"/>
       <c r="B41" s="24" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="15"/>
-      <c r="B42" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>140</v>
+      <c r="B42" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="15"/>
       <c r="B43" s="24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="15"/>
-      <c r="B44" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>149</v>
+      <c r="B44" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="15"/>
       <c r="B45" s="24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="15"/>
       <c r="B46" s="24" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="15"/>
       <c r="B47" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="15"/>
+      <c r="B48" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="15"/>
+      <c r="B49" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D49" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E49" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F49" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G49" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H49" s="32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="47" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-    </row>
-    <row r="49" spans="1:8" ht="39">
-      <c r="A49" s="15"/>
-      <c r="B49" s="30" t="s">
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" spans="1:8" ht="39">
+      <c r="A51" s="15"/>
+      <c r="B51" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C51" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D51" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E51" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F51" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="15"/>
-      <c r="B50" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" ht="52">
-      <c r="A51" s="15"/>
-      <c r="B51" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>176</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="26">
+    <row r="52" spans="1:8">
       <c r="A52" s="15"/>
-      <c r="B52" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>180</v>
+      <c r="B52" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="26">
+    <row r="53" spans="1:8" ht="52">
       <c r="A53" s="15"/>
       <c r="B53" s="31" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="39">
+    <row r="54" spans="1:8" ht="26">
       <c r="A54" s="15"/>
       <c r="B54" s="31" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="26">
       <c r="A55" s="15"/>
-      <c r="B55" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="30" t="s">
+      <c r="B55" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>192</v>
+      <c r="D55" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>184</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="39">
       <c r="A56" s="15"/>
-      <c r="B56" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="30" t="s">
+      <c r="B56" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>196</v>
+      <c r="D56" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>188</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3287,163 +3316,163 @@
     <row r="57" spans="1:8" ht="26">
       <c r="A57" s="15"/>
       <c r="B57" s="30" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="45" customHeight="1">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
-      <c r="B58" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>202</v>
+      <c r="B58" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-    </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1">
+        <v>196</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="26">
       <c r="A59" s="15"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="B59" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>198</v>
+      </c>
       <c r="F59" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
+        <v>199</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="45" customHeight="1">
       <c r="A60" s="15"/>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+    </row>
+    <row r="61" spans="1:8" ht="30" customHeight="1">
+      <c r="A61" s="15"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+    </row>
+    <row r="62" spans="1:8" ht="45" customHeight="1">
+      <c r="A62" s="15"/>
+      <c r="B62" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C62" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D62" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E62" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="38" t="s">
+      <c r="F62" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="38" t="s">
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1">
+      <c r="A63" s="15"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-    </row>
-    <row r="62" spans="1:8" ht="39">
-      <c r="A62" s="15"/>
-      <c r="B62" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" ht="26">
-      <c r="A63" s="15"/>
-      <c r="B63" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" ht="26">
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+    </row>
+    <row r="64" spans="1:8" ht="39">
       <c r="A64" s="15"/>
       <c r="B64" s="31" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>211</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="26">
       <c r="A65" s="15"/>
       <c r="B65" s="31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -3451,59 +3480,59 @@
     <row r="66" spans="1:8" ht="26">
       <c r="A66" s="15"/>
       <c r="B66" s="31" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="26">
+    <row r="67" spans="1:8">
       <c r="A67" s="15"/>
       <c r="B67" s="31" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="26">
       <c r="A68" s="15"/>
       <c r="B68" s="31" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>227</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3511,299 +3540,299 @@
     <row r="69" spans="1:8" ht="26">
       <c r="A69" s="15"/>
       <c r="B69" s="31" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="26">
+    <row r="70" spans="1:8">
       <c r="A70" s="15"/>
       <c r="B70" s="31" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="26">
       <c r="A71" s="15"/>
-      <c r="B71" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C71" s="30" t="s">
+      <c r="B71" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>248</v>
+      <c r="D71" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>242</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="52">
+    <row r="72" spans="1:8" ht="26">
       <c r="A72" s="15"/>
       <c r="B72" s="31" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="15"/>
-      <c r="B73" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>256</v>
+      <c r="B73" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>248</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="52">
       <c r="A74" s="15"/>
-      <c r="B74" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="30" t="s">
+      <c r="B74" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="D74" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F74" s="38" t="s">
-        <v>259</v>
+      <c r="D74" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>253</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="26">
+    <row r="75" spans="1:8">
       <c r="A75" s="15"/>
       <c r="B75" s="31" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="39">
+    <row r="76" spans="1:8">
       <c r="A76" s="15"/>
       <c r="B76" s="30" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="26">
       <c r="A77" s="15"/>
       <c r="B77" s="31" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C77" s="31" t="s">
         <v>261</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="39">
       <c r="A78" s="15"/>
       <c r="B78" s="30" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="15"/>
-      <c r="B79" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D79" s="30" t="s">
+      <c r="B79" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="F79" s="38" t="s">
-        <v>275</v>
+      <c r="E79" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>269</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="39">
+    <row r="80" spans="1:8">
       <c r="A80" s="15"/>
       <c r="B80" s="30" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="26">
+    <row r="81" spans="1:8">
       <c r="A81" s="15"/>
       <c r="B81" s="30" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="26">
+    <row r="82" spans="1:8" ht="39">
       <c r="A82" s="15"/>
       <c r="B82" s="30" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C82" s="30" t="s">
         <v>277</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" ht="39">
+    <row r="83" spans="1:8" ht="26">
       <c r="A83" s="15"/>
-      <c r="B83" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>291</v>
+      <c r="B83" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3811,152 +3840,192 @@
     <row r="84" spans="1:8" ht="26">
       <c r="A84" s="15"/>
       <c r="B84" s="30" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" ht="39">
       <c r="A85" s="15"/>
       <c r="B85" s="31" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C85" s="31" t="s">
         <v>288</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="39">
+    <row r="86" spans="1:8" ht="26">
       <c r="A86" s="15"/>
-      <c r="B86" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="F86" s="39" t="s">
-        <v>303</v>
+      <c r="B86" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>295</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" ht="52">
+    <row r="87" spans="1:8">
       <c r="A87" s="15"/>
       <c r="B87" s="31" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>305</v>
+        <v>114</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="26">
+    <row r="88" spans="1:8" ht="39">
       <c r="A88" s="15"/>
-      <c r="B88" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C88" s="30" t="s">
+      <c r="B88" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="D88" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="F88" s="38" t="s">
-        <v>311</v>
+      <c r="D88" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F88" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="26">
+    <row r="89" spans="1:8" ht="52">
       <c r="A89" s="15"/>
       <c r="B89" s="31" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>300</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="4"/>
+    <row r="90" spans="1:8" ht="26">
+      <c r="A90" s="15"/>
+      <c r="B90" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>311</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
+    <row r="91" spans="1:8" ht="26">
+      <c r="A91" s="15"/>
+      <c r="B91" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="F91" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H89"/>
+  <autoFilter ref="A1:H91"/>
   <mergeCells count="23">
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:E61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -3972,80 +4041,83 @@
     <hyperlink ref="H10" r:id="rId5"/>
     <hyperlink ref="H12" r:id="rId6"/>
     <hyperlink ref="H13" r:id="rId7"/>
-    <hyperlink ref="H16" r:id="rId8"/>
-    <hyperlink ref="H17" r:id="rId9"/>
-    <hyperlink ref="H18" r:id="rId10"/>
-    <hyperlink ref="H19" r:id="rId11"/>
-    <hyperlink ref="H20" r:id="rId12"/>
-    <hyperlink ref="H21" r:id="rId13"/>
-    <hyperlink ref="H23" r:id="rId14"/>
-    <hyperlink ref="H24" r:id="rId15"/>
-    <hyperlink ref="H25" r:id="rId16"/>
-    <hyperlink ref="H26" r:id="rId17"/>
-    <hyperlink ref="H27" r:id="rId18"/>
-    <hyperlink ref="H28" r:id="rId19"/>
-    <hyperlink ref="H30" r:id="rId20"/>
-    <hyperlink ref="H31" r:id="rId21"/>
-    <hyperlink ref="H32" r:id="rId22"/>
-    <hyperlink ref="H33" r:id="rId23"/>
-    <hyperlink ref="H34" r:id="rId24"/>
-    <hyperlink ref="H35" r:id="rId25"/>
-    <hyperlink ref="H36" r:id="rId26"/>
-    <hyperlink ref="H38" r:id="rId27"/>
-    <hyperlink ref="H39" r:id="rId28"/>
-    <hyperlink ref="H40" r:id="rId29"/>
-    <hyperlink ref="H41" r:id="rId30"/>
-    <hyperlink ref="H42" r:id="rId31"/>
-    <hyperlink ref="H43" r:id="rId32"/>
-    <hyperlink ref="H44" r:id="rId33"/>
-    <hyperlink ref="H45" r:id="rId34"/>
-    <hyperlink ref="H46" r:id="rId35"/>
-    <hyperlink ref="H47" r:id="rId36"/>
-    <hyperlink ref="F49" r:id="rId37"/>
-    <hyperlink ref="F50" r:id="rId38"/>
-    <hyperlink ref="F51" r:id="rId39"/>
-    <hyperlink ref="F52" r:id="rId40"/>
-    <hyperlink ref="F53" r:id="rId41"/>
-    <hyperlink ref="F54" r:id="rId42"/>
-    <hyperlink ref="F55" r:id="rId43"/>
-    <hyperlink ref="F56" r:id="rId44"/>
-    <hyperlink ref="F57" r:id="rId45"/>
-    <hyperlink ref="F58" r:id="rId46"/>
-    <hyperlink ref="F59" r:id="rId47"/>
-    <hyperlink ref="F60" r:id="rId48"/>
-    <hyperlink ref="F61" r:id="rId49"/>
-    <hyperlink ref="F62" r:id="rId50"/>
-    <hyperlink ref="F63" r:id="rId51"/>
-    <hyperlink ref="F64" r:id="rId52"/>
-    <hyperlink ref="F65" r:id="rId53"/>
-    <hyperlink ref="F66" r:id="rId54"/>
-    <hyperlink ref="F67" r:id="rId55"/>
-    <hyperlink ref="F68" r:id="rId56"/>
-    <hyperlink ref="F69" r:id="rId57"/>
-    <hyperlink ref="F70" r:id="rId58"/>
-    <hyperlink ref="F71" r:id="rId59"/>
-    <hyperlink ref="F72" r:id="rId60"/>
-    <hyperlink ref="F73" r:id="rId61"/>
-    <hyperlink ref="F74" r:id="rId62"/>
-    <hyperlink ref="F75" r:id="rId63"/>
-    <hyperlink ref="F76" r:id="rId64"/>
-    <hyperlink ref="F77" r:id="rId65"/>
-    <hyperlink ref="F78" r:id="rId66"/>
-    <hyperlink ref="F79" r:id="rId67"/>
-    <hyperlink ref="F80" r:id="rId68"/>
-    <hyperlink ref="F81" r:id="rId69"/>
-    <hyperlink ref="F82" r:id="rId70"/>
-    <hyperlink ref="F83" r:id="rId71"/>
-    <hyperlink ref="F84" r:id="rId72"/>
-    <hyperlink ref="F85" r:id="rId73"/>
-    <hyperlink ref="F86" r:id="rId74"/>
-    <hyperlink ref="F87" r:id="rId75"/>
-    <hyperlink ref="F88" r:id="rId76"/>
-    <hyperlink ref="F89" r:id="rId77"/>
+    <hyperlink ref="H18" r:id="rId8"/>
+    <hyperlink ref="H19" r:id="rId9"/>
+    <hyperlink ref="H20" r:id="rId10"/>
+    <hyperlink ref="H21" r:id="rId11"/>
+    <hyperlink ref="H22" r:id="rId12"/>
+    <hyperlink ref="H23" r:id="rId13"/>
+    <hyperlink ref="H25" r:id="rId14"/>
+    <hyperlink ref="H26" r:id="rId15"/>
+    <hyperlink ref="H27" r:id="rId16"/>
+    <hyperlink ref="H28" r:id="rId17"/>
+    <hyperlink ref="H29" r:id="rId18"/>
+    <hyperlink ref="H30" r:id="rId19"/>
+    <hyperlink ref="H32" r:id="rId20"/>
+    <hyperlink ref="H33" r:id="rId21"/>
+    <hyperlink ref="H34" r:id="rId22"/>
+    <hyperlink ref="H35" r:id="rId23"/>
+    <hyperlink ref="H36" r:id="rId24"/>
+    <hyperlink ref="H37" r:id="rId25"/>
+    <hyperlink ref="H38" r:id="rId26"/>
+    <hyperlink ref="H40" r:id="rId27"/>
+    <hyperlink ref="H41" r:id="rId28"/>
+    <hyperlink ref="H42" r:id="rId29"/>
+    <hyperlink ref="H43" r:id="rId30"/>
+    <hyperlink ref="H44" r:id="rId31"/>
+    <hyperlink ref="H45" r:id="rId32"/>
+    <hyperlink ref="H46" r:id="rId33"/>
+    <hyperlink ref="H47" r:id="rId34"/>
+    <hyperlink ref="H48" r:id="rId35"/>
+    <hyperlink ref="H49" r:id="rId36"/>
+    <hyperlink ref="F51" r:id="rId37"/>
+    <hyperlink ref="F52" r:id="rId38"/>
+    <hyperlink ref="F53" r:id="rId39"/>
+    <hyperlink ref="F54" r:id="rId40"/>
+    <hyperlink ref="F55" r:id="rId41"/>
+    <hyperlink ref="F56" r:id="rId42"/>
+    <hyperlink ref="F57" r:id="rId43"/>
+    <hyperlink ref="F58" r:id="rId44"/>
+    <hyperlink ref="F59" r:id="rId45"/>
+    <hyperlink ref="F60" r:id="rId46"/>
+    <hyperlink ref="F61" r:id="rId47"/>
+    <hyperlink ref="F62" r:id="rId48"/>
+    <hyperlink ref="F63" r:id="rId49"/>
+    <hyperlink ref="F64" r:id="rId50"/>
+    <hyperlink ref="F65" r:id="rId51"/>
+    <hyperlink ref="F66" r:id="rId52"/>
+    <hyperlink ref="F67" r:id="rId53"/>
+    <hyperlink ref="F68" r:id="rId54"/>
+    <hyperlink ref="F69" r:id="rId55"/>
+    <hyperlink ref="F70" r:id="rId56"/>
+    <hyperlink ref="F71" r:id="rId57"/>
+    <hyperlink ref="F72" r:id="rId58"/>
+    <hyperlink ref="F73" r:id="rId59"/>
+    <hyperlink ref="F74" r:id="rId60"/>
+    <hyperlink ref="F75" r:id="rId61"/>
+    <hyperlink ref="F76" r:id="rId62"/>
+    <hyperlink ref="F77" r:id="rId63"/>
+    <hyperlink ref="F78" r:id="rId64"/>
+    <hyperlink ref="F79" r:id="rId65"/>
+    <hyperlink ref="F80" r:id="rId66"/>
+    <hyperlink ref="F81" r:id="rId67"/>
+    <hyperlink ref="F82" r:id="rId68"/>
+    <hyperlink ref="F83" r:id="rId69"/>
+    <hyperlink ref="F84" r:id="rId70"/>
+    <hyperlink ref="F85" r:id="rId71"/>
+    <hyperlink ref="F86" r:id="rId72"/>
+    <hyperlink ref="F87" r:id="rId73"/>
+    <hyperlink ref="F88" r:id="rId74"/>
+    <hyperlink ref="F89" r:id="rId75"/>
+    <hyperlink ref="F90" r:id="rId76"/>
+    <hyperlink ref="F91" r:id="rId77"/>
     <hyperlink ref="H5" r:id="rId78"/>
     <hyperlink ref="H7" r:id="rId79"/>
     <hyperlink ref="H6" r:id="rId80"/>
     <hyperlink ref="H14" r:id="rId81"/>
+    <hyperlink ref="H16" r:id="rId82"/>
+    <hyperlink ref="H15" r:id="rId83"/>
+    <hyperlink ref="H17" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4248,15 +4320,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">

--- a/classes/BSinCS.xlsx
+++ b/classes/BSinCS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -1714,9 +1714,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,6 +1779,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2290,25 +2290,25 @@
   <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomRight" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="48" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="48" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="68.83203125" style="48" customWidth="1"/>
-    <col min="6" max="8" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="37"/>
+    <col min="1" max="1" width="11.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="47" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="47" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="47" customWidth="1"/>
+    <col min="5" max="5" width="68.83203125" style="47" customWidth="1"/>
+    <col min="6" max="8" width="12" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>327</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -2334,7 +2334,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="24">
-      <c r="A2" s="38">
+      <c r="A2" s="37">
         <v>42430</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2346,21 +2346,22 @@
       <c r="D2" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>331</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>339</v>
       </c>
       <c r="G2" s="24"/>
-      <c r="H2" s="28" t="str">
+      <c r="H2" s="27" t="str">
         <f>IF(OR(G2="", G2="X"),"",G2-A2)</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24">
-      <c r="A3" s="38">
-        <v>42455</v>
+      <c r="A3" s="37">
+        <f>A2+25+3</f>
+        <v>42458</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
@@ -2371,7 +2372,7 @@
       <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -2384,7 +2385,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="24">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>42464</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2396,7 +2397,7 @@
       <c r="D4" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>334</v>
       </c>
       <c r="F4" s="24" t="s">
@@ -2409,7 +2410,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="24">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <f>A4+12</f>
         <v>42476</v>
       </c>
@@ -2422,7 +2423,7 @@
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="24" t="s">
@@ -2435,7 +2436,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="24">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <f>A5+12</f>
         <v>42488</v>
       </c>
@@ -2448,7 +2449,7 @@
       <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -2461,7 +2462,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="48">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <f>A6+12</f>
         <v>42500</v>
       </c>
@@ -2474,7 +2475,7 @@
       <c r="D7" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="24" t="s">
@@ -2487,7 +2488,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="36">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <f>A7+12</f>
         <v>42512</v>
       </c>
@@ -2500,7 +2501,7 @@
       <c r="D8" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>303</v>
       </c>
       <c r="F8" s="24" t="s">
@@ -2513,7 +2514,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="24">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <f>A8+7</f>
         <v>42519</v>
       </c>
@@ -2526,7 +2527,7 @@
       <c r="D9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="15" t="s">
@@ -2539,7 +2540,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="24">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <f>A9+7</f>
         <v>42526</v>
       </c>
@@ -2552,7 +2553,7 @@
       <c r="D10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="24" t="s">
@@ -2565,32 +2566,32 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="24">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>42522</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="str">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <f>A11+12</f>
         <v>42534</v>
       </c>
@@ -2603,7 +2604,7 @@
       <c r="D12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="15" t="s">
@@ -2616,7 +2617,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="24">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <f>A12+12</f>
         <v>42546</v>
       </c>
@@ -2629,7 +2630,7 @@
       <c r="D13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="15" t="s">
@@ -2642,7 +2643,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="24">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>42552</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -2654,7 +2655,7 @@
       <c r="D14" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>332</v>
       </c>
       <c r="F14" s="24" t="s">
@@ -2667,7 +2668,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="24">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <f>A14+12</f>
         <v>42564</v>
       </c>
@@ -2680,7 +2681,7 @@
       <c r="D15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -2693,7 +2694,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="24">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <f>A15+12</f>
         <v>42576</v>
       </c>
@@ -2706,7 +2707,7 @@
       <c r="D16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="15" t="s">
@@ -2719,7 +2720,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="24">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>42583</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -2731,7 +2732,7 @@
       <c r="D17" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>330</v>
       </c>
       <c r="F17" s="24" t="s">
@@ -2744,7 +2745,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="24">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2756,7 +2757,7 @@
       <c r="D18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>307</v>
       </c>
       <c r="F18" s="15" t="s">
@@ -2771,7 +2772,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="24">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2783,7 +2784,7 @@
       <c r="D19" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>314</v>
       </c>
       <c r="F19" s="15" t="s">
@@ -2798,7 +2799,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -2810,7 +2811,7 @@
       <c r="D20" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>311</v>
       </c>
       <c r="F20" s="15" t="s">
@@ -2825,7 +2826,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="36">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -2837,7 +2838,7 @@
       <c r="D21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="24" t="s">
@@ -2852,7 +2853,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="36">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -2864,22 +2865,22 @@
       <c r="D22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="H22" s="31" t="str">
+      <c r="H22" s="30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -2891,7 +2892,7 @@
       <c r="D23" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>317</v>
       </c>
       <c r="F23" s="24" t="s">
@@ -2906,7 +2907,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="36">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -2918,7 +2919,7 @@
       <c r="D24" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>321</v>
       </c>
       <c r="F24" s="24" t="s">
@@ -2933,7 +2934,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="24">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -2945,7 +2946,7 @@
       <c r="D25" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="38" t="s">
         <v>319</v>
       </c>
       <c r="F25" s="24" t="s">
@@ -2960,7 +2961,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="24">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2972,7 +2973,7 @@
       <c r="D26" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="38" t="s">
         <v>323</v>
       </c>
       <c r="F26" s="24" t="s">
@@ -2987,7 +2988,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="24">
-      <c r="A27" s="41"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="18" t="s">
         <v>35</v>
       </c>
@@ -2997,7 +2998,7 @@
       <c r="D27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="41" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="17" t="s">
@@ -3010,7 +3011,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="24">
-      <c r="A28" s="41"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
@@ -3020,7 +3021,7 @@
       <c r="D28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="17" t="s">
@@ -3033,7 +3034,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="24">
-      <c r="A29" s="41"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="18" t="s">
         <v>12</v>
       </c>
@@ -3043,7 +3044,7 @@
       <c r="D29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="41" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -3056,7 +3057,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="48">
-      <c r="A30" s="41"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="18" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3067,7 @@
       <c r="D30" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -3079,7 +3080,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="36">
-      <c r="A31" s="41"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="18" t="s">
         <v>5</v>
       </c>
@@ -3089,7 +3090,7 @@
       <c r="D31" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="41" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -3102,7 +3103,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="41"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="18" t="s">
         <v>56</v>
       </c>
@@ -3112,7 +3113,7 @@
       <c r="D32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="41" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="17" t="s">
@@ -3125,7 +3126,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="36">
-      <c r="A33" s="41"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="18" t="s">
         <v>12</v>
       </c>
@@ -3135,7 +3136,7 @@
       <c r="D33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="41" t="s">
         <v>61</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -3148,7 +3149,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="24">
-      <c r="A34" s="41"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="18" t="s">
         <v>12</v>
       </c>
@@ -3158,7 +3159,7 @@
       <c r="D34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="41" t="s">
         <v>64</v>
       </c>
       <c r="F34" s="17" t="s">
@@ -3171,7 +3172,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="24">
-      <c r="A35" s="41"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="18" t="s">
         <v>56</v>
       </c>
@@ -3181,7 +3182,7 @@
       <c r="D35" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="41" t="s">
         <v>67</v>
       </c>
       <c r="F35" s="17" t="s">
@@ -3194,7 +3195,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="24">
-      <c r="A36" s="41"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="18" t="s">
         <v>28</v>
       </c>
@@ -3204,7 +3205,7 @@
       <c r="D36" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="41" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="17" t="s">
@@ -3217,7 +3218,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="24">
-      <c r="A37" s="41"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>28</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="D37" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="42" t="s">
         <v>73</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -3240,7 +3241,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="24">
-      <c r="A38" s="41"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="18" t="s">
         <v>74</v>
       </c>
@@ -3250,7 +3251,7 @@
       <c r="D38" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="41" t="s">
         <v>76</v>
       </c>
       <c r="F38" s="17" t="s">
@@ -3263,7 +3264,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="24">
-      <c r="A39" s="41"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="18" t="s">
         <v>74</v>
       </c>
@@ -3273,7 +3274,7 @@
       <c r="D39" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -3286,7 +3287,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="24">
-      <c r="A40" s="41"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="18" t="s">
         <v>79</v>
       </c>
@@ -3296,7 +3297,7 @@
       <c r="D40" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="41" t="s">
         <v>82</v>
       </c>
       <c r="F40" s="17" t="s">
@@ -3309,7 +3310,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="24">
-      <c r="A41" s="41"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="18" t="s">
         <v>79</v>
       </c>
@@ -3319,7 +3320,7 @@
       <c r="D41" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="41" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="17" t="s">
@@ -3332,7 +3333,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="24">
-      <c r="A42" s="41"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="18" t="s">
         <v>85</v>
       </c>
@@ -3342,7 +3343,7 @@
       <c r="D42" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="41" t="s">
         <v>88</v>
       </c>
       <c r="F42" s="17" t="s">
@@ -3355,7 +3356,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="24">
-      <c r="A43" s="41"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="18" t="s">
         <v>85</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="D43" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="41" t="s">
         <v>91</v>
       </c>
       <c r="F43" s="17" t="s">
@@ -3378,7 +3379,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="24">
-      <c r="A44" s="41"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20" t="s">
         <v>92</v>
@@ -3386,7 +3387,7 @@
       <c r="D44" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="42" t="s">
         <v>94</v>
       </c>
       <c r="F44" s="19" t="s">
@@ -3399,7 +3400,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="24">
-      <c r="A45" s="41"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="18" t="s">
         <v>95</v>
       </c>
@@ -3409,7 +3410,7 @@
       <c r="D45" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="41" t="s">
         <v>98</v>
       </c>
       <c r="F45" s="17" t="s">
@@ -3422,7 +3423,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="24">
-      <c r="A46" s="41"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="18" t="s">
         <v>95</v>
       </c>
@@ -3432,7 +3433,7 @@
       <c r="D46" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="41" t="s">
         <v>101</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -3445,7 +3446,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="24">
-      <c r="A47" s="41"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="18" t="s">
         <v>102</v>
       </c>
@@ -3455,7 +3456,7 @@
       <c r="D47" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="41" t="s">
         <v>105</v>
       </c>
       <c r="F47" s="17" t="s">
@@ -3468,7 +3469,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="24">
-      <c r="A48" s="41"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="18" t="s">
         <v>106</v>
       </c>
@@ -3478,7 +3479,7 @@
       <c r="D48" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="41" t="s">
         <v>109</v>
       </c>
       <c r="F48" s="17" t="s">
@@ -3491,7 +3492,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="24">
-      <c r="A49" s="41"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="18" t="s">
         <v>106</v>
       </c>
@@ -3501,7 +3502,7 @@
       <c r="D49" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="44" t="s">
+      <c r="E49" s="43" t="s">
         <v>112</v>
       </c>
       <c r="F49" s="17" t="s">
@@ -3514,17 +3515,17 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="24">
-      <c r="A50" s="41"/>
-      <c r="B50" s="33" t="s">
+      <c r="A50" s="40"/>
+      <c r="B50" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="44" t="s">
         <v>116</v>
       </c>
       <c r="F50" s="26" t="s">
@@ -3537,17 +3538,17 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="24">
-      <c r="A51" s="41"/>
-      <c r="B51" s="33" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E51" s="44" t="s">
         <v>119</v>
       </c>
       <c r="F51" s="26" t="s">
@@ -3560,17 +3561,17 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="24">
-      <c r="A52" s="41"/>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="45" t="s">
         <v>124</v>
       </c>
       <c r="F52" s="21" t="s">
@@ -3583,17 +3584,17 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="36">
-      <c r="A53" s="41"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="40"/>
+      <c r="B53" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="45" t="s">
         <v>128</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -3606,17 +3607,17 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="41"/>
-      <c r="B54" s="34" t="s">
+      <c r="A54" s="40"/>
+      <c r="B54" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="45" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="21" t="s">
@@ -3629,17 +3630,17 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="24">
-      <c r="A55" s="41"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="40"/>
+      <c r="B55" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="45" t="s">
         <v>136</v>
       </c>
       <c r="F55" s="21" t="s">
@@ -3652,17 +3653,17 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="36">
-      <c r="A56" s="41"/>
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="40"/>
+      <c r="B56" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="44" t="s">
         <v>140</v>
       </c>
       <c r="F56" s="26" t="s">
@@ -3675,17 +3676,17 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="24">
-      <c r="A57" s="41"/>
-      <c r="B57" s="33" t="s">
+      <c r="A57" s="40"/>
+      <c r="B57" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="44" t="s">
         <v>144</v>
       </c>
       <c r="F57" s="26" t="s">
@@ -3698,17 +3699,17 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="24">
-      <c r="A58" s="41"/>
-      <c r="B58" s="33" t="s">
+      <c r="A58" s="40"/>
+      <c r="B58" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="44" t="s">
         <v>147</v>
       </c>
       <c r="F58" s="26" t="s">
@@ -3721,63 +3722,63 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="36">
-      <c r="A59" s="41"/>
-      <c r="B59" s="35" t="s">
+      <c r="A59" s="40"/>
+      <c r="B59" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29" t="str">
+      <c r="G59" s="28"/>
+      <c r="H59" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:8" ht="36">
-      <c r="A60" s="41"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="40"/>
+      <c r="B60" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29" t="str">
+      <c r="G60" s="28"/>
+      <c r="H60" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:8" ht="24">
-      <c r="A61" s="41"/>
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="40"/>
+      <c r="B61" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F61" s="21" t="s">
@@ -3790,17 +3791,17 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="24">
-      <c r="A62" s="41"/>
-      <c r="B62" s="34" t="s">
+      <c r="A62" s="40"/>
+      <c r="B62" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="45" t="s">
         <v>158</v>
       </c>
       <c r="F62" s="21" t="s">
@@ -3813,17 +3814,17 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="24">
-      <c r="A63" s="41"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="40"/>
+      <c r="B63" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="45" t="s">
         <v>160</v>
       </c>
       <c r="F63" s="21" t="s">
@@ -3836,17 +3837,17 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="24">
-      <c r="A64" s="41"/>
-      <c r="B64" s="34" t="s">
+      <c r="A64" s="40"/>
+      <c r="B64" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E64" s="45" t="s">
         <v>165</v>
       </c>
       <c r="F64" s="21" t="s">
@@ -3859,17 +3860,17 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="24">
-      <c r="A65" s="41"/>
-      <c r="B65" s="34" t="s">
+      <c r="A65" s="40"/>
+      <c r="B65" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E65" s="46" t="s">
+      <c r="E65" s="45" t="s">
         <v>170</v>
       </c>
       <c r="F65" s="21" t="s">
@@ -3882,17 +3883,17 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="24">
-      <c r="A66" s="41"/>
-      <c r="B66" s="34" t="s">
+      <c r="A66" s="40"/>
+      <c r="B66" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="46" t="s">
+      <c r="E66" s="45" t="s">
         <v>173</v>
       </c>
       <c r="F66" s="21" t="s">
@@ -3905,17 +3906,17 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="24">
-      <c r="A67" s="41"/>
-      <c r="B67" s="34" t="s">
+      <c r="A67" s="40"/>
+      <c r="B67" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="45" t="s">
         <v>177</v>
       </c>
       <c r="F67" s="21" t="s">
@@ -3928,17 +3929,17 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="24">
-      <c r="A68" s="41"/>
-      <c r="B68" s="34" t="s">
+      <c r="A68" s="40"/>
+      <c r="B68" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="45" t="s">
         <v>182</v>
       </c>
       <c r="F68" s="21" t="s">
@@ -3951,17 +3952,17 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="36">
-      <c r="A69" s="41"/>
-      <c r="B69" s="34" t="s">
+      <c r="A69" s="40"/>
+      <c r="B69" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="45" t="s">
         <v>185</v>
       </c>
       <c r="F69" s="21" t="s">
@@ -3974,17 +3975,17 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="36">
-      <c r="A70" s="41"/>
-      <c r="B70" s="33" t="s">
+      <c r="A70" s="40"/>
+      <c r="B70" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="44" t="s">
         <v>188</v>
       </c>
       <c r="F70" s="26" t="s">
@@ -3997,17 +3998,17 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="24">
-      <c r="A71" s="41"/>
-      <c r="B71" s="34" t="s">
+      <c r="A71" s="40"/>
+      <c r="B71" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="45" t="s">
         <v>193</v>
       </c>
       <c r="F71" s="21" t="s">
@@ -4020,17 +4021,17 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="24">
-      <c r="A72" s="41"/>
-      <c r="B72" s="34" t="s">
+      <c r="A72" s="40"/>
+      <c r="B72" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="45" t="s">
         <v>196</v>
       </c>
       <c r="F72" s="21" t="s">
@@ -4043,17 +4044,17 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="24">
-      <c r="A73" s="41"/>
-      <c r="B73" s="33" t="s">
+      <c r="A73" s="40"/>
+      <c r="B73" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="44" t="s">
         <v>199</v>
       </c>
       <c r="F73" s="26" t="s">
@@ -4066,17 +4067,17 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="24">
-      <c r="A74" s="41"/>
-      <c r="B74" s="34" t="s">
+      <c r="A74" s="40"/>
+      <c r="B74" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E74" s="46" t="s">
+      <c r="E74" s="45" t="s">
         <v>204</v>
       </c>
       <c r="F74" s="21" t="s">
@@ -4089,17 +4090,17 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="24">
-      <c r="A75" s="41"/>
-      <c r="B75" s="33" t="s">
+      <c r="A75" s="40"/>
+      <c r="B75" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C75" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="44" t="s">
         <v>206</v>
       </c>
       <c r="F75" s="26" t="s">
@@ -4112,17 +4113,17 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="24">
-      <c r="A76" s="41"/>
-      <c r="B76" s="34" t="s">
+      <c r="A76" s="40"/>
+      <c r="B76" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>209</v>
       </c>
       <c r="F76" s="21" t="s">
@@ -4135,17 +4136,17 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="24">
-      <c r="A77" s="41"/>
-      <c r="B77" s="33" t="s">
+      <c r="A77" s="40"/>
+      <c r="B77" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="45" t="s">
+      <c r="E77" s="44" t="s">
         <v>212</v>
       </c>
       <c r="F77" s="26" t="s">
@@ -4158,17 +4159,17 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="24">
-      <c r="A78" s="41"/>
-      <c r="B78" s="33" t="s">
+      <c r="A78" s="40"/>
+      <c r="B78" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="E78" s="45" t="s">
+      <c r="E78" s="44" t="s">
         <v>213</v>
       </c>
       <c r="F78" s="26" t="s">
@@ -4181,17 +4182,17 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="24">
-      <c r="A79" s="41"/>
-      <c r="B79" s="33" t="s">
+      <c r="A79" s="40"/>
+      <c r="B79" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="E79" s="45" t="s">
+      <c r="E79" s="44" t="s">
         <v>218</v>
       </c>
       <c r="F79" s="26" t="s">
@@ -4204,17 +4205,17 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="24">
-      <c r="A80" s="41"/>
-      <c r="B80" s="33" t="s">
+      <c r="A80" s="40"/>
+      <c r="B80" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E80" s="45" t="s">
+      <c r="E80" s="44" t="s">
         <v>222</v>
       </c>
       <c r="F80" s="26" t="s">
@@ -4227,17 +4228,17 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="41"/>
-      <c r="B81" s="33" t="s">
+      <c r="A81" s="40"/>
+      <c r="B81" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E81" s="44" t="s">
         <v>224</v>
       </c>
       <c r="F81" s="26" t="s">
@@ -4250,17 +4251,17 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="24">
-      <c r="A82" s="41"/>
-      <c r="B82" s="34" t="s">
+      <c r="A82" s="40"/>
+      <c r="B82" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="D82" s="34" t="s">
+      <c r="D82" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="E82" s="46" t="s">
+      <c r="E82" s="45" t="s">
         <v>229</v>
       </c>
       <c r="F82" s="21" t="s">
@@ -4273,17 +4274,17 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="24">
-      <c r="A83" s="41"/>
-      <c r="B83" s="33" t="s">
+      <c r="A83" s="40"/>
+      <c r="B83" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="E83" s="45" t="s">
+      <c r="E83" s="44" t="s">
         <v>233</v>
       </c>
       <c r="F83" s="26" t="s">
@@ -4296,17 +4297,17 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="24">
-      <c r="A84" s="41"/>
-      <c r="B84" s="34" t="s">
+      <c r="A84" s="40"/>
+      <c r="B84" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="45" t="s">
         <v>236</v>
       </c>
       <c r="F84" s="21" t="s">
@@ -4319,17 +4320,17 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="24">
-      <c r="A85" s="41"/>
-      <c r="B85" s="34" t="s">
+      <c r="A85" s="40"/>
+      <c r="B85" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="E85" s="46" t="s">
+      <c r="E85" s="45" t="s">
         <v>240</v>
       </c>
       <c r="F85" s="21" t="s">
@@ -4342,17 +4343,17 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="36">
-      <c r="A86" s="41"/>
-      <c r="B86" s="34" t="s">
+      <c r="A86" s="40"/>
+      <c r="B86" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D86" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E86" s="46" t="s">
+      <c r="E86" s="45" t="s">
         <v>243</v>
       </c>
       <c r="F86" s="21" t="s">
@@ -4365,17 +4366,17 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="24">
-      <c r="A87" s="41"/>
-      <c r="B87" s="33" t="s">
+      <c r="A87" s="40"/>
+      <c r="B87" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="E87" s="45" t="s">
+      <c r="E87" s="44" t="s">
         <v>246</v>
       </c>
       <c r="F87" s="26" t="s">
@@ -4388,17 +4389,17 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="24">
-      <c r="A88" s="41"/>
-      <c r="B88" s="34" t="s">
+      <c r="A88" s="40"/>
+      <c r="B88" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="E88" s="46" t="s">
+      <c r="E88" s="45" t="s">
         <v>249</v>
       </c>
       <c r="F88" s="21" t="s">
@@ -4411,1124 +4412,1124 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="24">
-      <c r="A89" s="41"/>
-      <c r="B89" s="49" t="s">
+      <c r="A89" s="40"/>
+      <c r="B89" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="E89" s="50" t="s">
+      <c r="E89" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="F89" s="54" t="s">
+      <c r="F89" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
     </row>
     <row r="90" spans="1:8" ht="36">
-      <c r="A90" s="41"/>
-      <c r="B90" s="52" t="s">
+      <c r="A90" s="40"/>
+      <c r="B90" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="C90" s="52" t="s">
+      <c r="C90" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="E90" s="50" t="s">
+      <c r="E90" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="F90" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
     </row>
     <row r="91" spans="1:8" ht="24">
-      <c r="A91" s="41"/>
-      <c r="B91" s="52" t="s">
+      <c r="A91" s="40"/>
+      <c r="B91" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="C91" s="52" t="s">
+      <c r="C91" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D91" s="52" t="s">
+      <c r="D91" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="F91" s="54" t="s">
+      <c r="F91" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
     </row>
     <row r="92" spans="1:8" ht="24">
-      <c r="A92" s="41"/>
-      <c r="B92" s="52" t="s">
+      <c r="A92" s="40"/>
+      <c r="B92" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="D92" s="52" t="s">
+      <c r="D92" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="E92" s="50" t="s">
+      <c r="E92" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="F92" s="54" t="s">
+      <c r="F92" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
     </row>
     <row r="93" spans="1:8" ht="24">
-      <c r="A93" s="41"/>
-      <c r="B93" s="52" t="s">
+      <c r="A93" s="40"/>
+      <c r="B93" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E93" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="F93" s="54" t="s">
+      <c r="F93" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
     </row>
     <row r="94" spans="1:8" ht="24">
-      <c r="A94" s="41"/>
-      <c r="B94" s="52" t="s">
+      <c r="A94" s="40"/>
+      <c r="B94" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="D94" s="52" t="s">
+      <c r="D94" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
     </row>
     <row r="95" spans="1:8" ht="24">
-      <c r="A95" s="41"/>
-      <c r="B95" s="52" t="s">
+      <c r="A95" s="40"/>
+      <c r="B95" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="F95" s="54" t="s">
+      <c r="F95" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="41"/>
-      <c r="B96" s="52" t="s">
+      <c r="A96" s="40"/>
+      <c r="B96" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C96" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="D96" s="52" t="s">
+      <c r="D96" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E96" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="F96" s="54" t="s">
+      <c r="F96" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="41"/>
-      <c r="B97" s="52" t="s">
+      <c r="A97" s="40"/>
+      <c r="B97" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D97" s="52" t="s">
+      <c r="D97" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="F97" s="54" t="s">
+      <c r="F97" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
     </row>
     <row r="98" spans="1:8" ht="36">
-      <c r="A98" s="41"/>
-      <c r="B98" s="52" t="s">
+      <c r="A98" s="40"/>
+      <c r="B98" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D98" s="52" t="s">
+      <c r="D98" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="E98" s="50" t="s">
+      <c r="E98" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="F98" s="54" t="s">
+      <c r="F98" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
     </row>
     <row r="99" spans="1:8" ht="24">
-      <c r="A99" s="41"/>
-      <c r="B99" s="52" t="s">
+      <c r="A99" s="40"/>
+      <c r="B99" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="E99" s="50" t="s">
+      <c r="E99" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="F99" s="54" t="s">
+      <c r="F99" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
     </row>
     <row r="100" spans="1:8" ht="24">
-      <c r="A100" s="41"/>
-      <c r="B100" s="52" t="s">
+      <c r="A100" s="40"/>
+      <c r="B100" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="D100" s="52" t="s">
+      <c r="D100" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="50" t="s">
+      <c r="E100" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="F100" s="54" t="s">
+      <c r="F100" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:8" ht="36">
-      <c r="A101" s="41"/>
-      <c r="B101" s="52" t="s">
+      <c r="A101" s="40"/>
+      <c r="B101" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="52" t="s">
+      <c r="C101" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D101" s="52" t="s">
+      <c r="D101" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="E101" s="50" t="s">
+      <c r="E101" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="F101" s="54" t="s">
+      <c r="F101" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8" ht="24">
-      <c r="A102" s="41"/>
-      <c r="B102" s="52" t="s">
+      <c r="A102" s="40"/>
+      <c r="B102" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="52" t="s">
+      <c r="C102" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D102" s="52" t="s">
+      <c r="D102" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="E102" s="50" t="s">
+      <c r="E102" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="F102" s="54" t="s">
+      <c r="F102" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8" ht="24">
-      <c r="A103" s="41"/>
-      <c r="B103" s="52" t="s">
+      <c r="A103" s="40"/>
+      <c r="B103" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D103" s="52" t="s">
+      <c r="D103" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="50" t="s">
+      <c r="E103" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="F103" s="54" t="s">
+      <c r="F103" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8" ht="24">
-      <c r="A104" s="41"/>
-      <c r="B104" s="52" t="s">
+      <c r="A104" s="40"/>
+      <c r="B104" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="D104" s="52" t="s">
+      <c r="D104" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="E104" s="50" t="s">
+      <c r="E104" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="F104" s="54" t="s">
+      <c r="F104" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8" ht="24">
-      <c r="A105" s="41"/>
-      <c r="B105" s="52" t="s">
+      <c r="A105" s="40"/>
+      <c r="B105" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="D105" s="52" t="s">
+      <c r="D105" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="E105" s="50" t="s">
+      <c r="E105" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="F105" s="54" t="s">
+      <c r="F105" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
     </row>
     <row r="106" spans="1:8" ht="24">
-      <c r="A106" s="41"/>
-      <c r="B106" s="52" t="s">
+      <c r="A106" s="40"/>
+      <c r="B106" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="C106" s="52" t="s">
+      <c r="C106" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D106" s="52" t="s">
+      <c r="D106" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="F106" s="54" t="s">
+      <c r="F106" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
     </row>
     <row r="107" spans="1:8" ht="24">
-      <c r="A107" s="41"/>
-      <c r="B107" s="52" t="s">
+      <c r="A107" s="40"/>
+      <c r="B107" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D107" s="52" t="s">
+      <c r="D107" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="F107" s="54" t="s">
+      <c r="F107" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G107" s="53"/>
-      <c r="H107" s="53"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:8" ht="24">
-      <c r="A108" s="41"/>
-      <c r="B108" s="52" t="s">
+      <c r="A108" s="40"/>
+      <c r="B108" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C108" s="52" t="s">
+      <c r="C108" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="D108" s="52" t="s">
+      <c r="D108" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="E108" s="50" t="s">
+      <c r="E108" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="F108" s="54" t="s">
+      <c r="F108" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
     </row>
     <row r="109" spans="1:8" ht="24">
-      <c r="A109" s="41"/>
-      <c r="B109" s="52" t="s">
+      <c r="A109" s="40"/>
+      <c r="B109" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C109" s="52" t="s">
+      <c r="C109" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="D109" s="52" t="s">
+      <c r="D109" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="E109" s="50" t="s">
+      <c r="E109" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="F109" s="54" t="s">
+      <c r="F109" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
     </row>
     <row r="110" spans="1:8" ht="36">
-      <c r="A110" s="41"/>
-      <c r="B110" s="52" t="s">
+      <c r="A110" s="40"/>
+      <c r="B110" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="C110" s="52" t="s">
+      <c r="C110" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D110" s="52" t="s">
+      <c r="D110" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="E110" s="50" t="s">
+      <c r="E110" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="F110" s="54" t="s">
+      <c r="F110" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G110" s="53"/>
-      <c r="H110" s="53"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="41"/>
-      <c r="B111" s="52" t="s">
+      <c r="A111" s="40"/>
+      <c r="B111" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D111" s="52" t="s">
+      <c r="D111" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="E111" s="50" t="s">
+      <c r="E111" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="F111" s="54" t="s">
+      <c r="F111" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G111" s="53"/>
-      <c r="H111" s="53"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
     </row>
     <row r="112" spans="1:8" ht="24">
-      <c r="A112" s="41"/>
-      <c r="B112" s="52" t="s">
+      <c r="A112" s="40"/>
+      <c r="B112" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="C112" s="52" t="s">
+      <c r="C112" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D112" s="52" t="s">
+      <c r="D112" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="E112" s="50" t="s">
+      <c r="E112" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="F112" s="54" t="s">
+      <c r="F112" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G112" s="53"/>
-      <c r="H112" s="53"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
     </row>
     <row r="113" spans="1:8" ht="24">
-      <c r="A113" s="41"/>
-      <c r="B113" s="52" t="s">
+      <c r="A113" s="40"/>
+      <c r="B113" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="C113" s="52" t="s">
+      <c r="C113" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="D113" s="52" t="s">
+      <c r="D113" s="51" t="s">
         <v>405</v>
       </c>
-      <c r="E113" s="50" t="s">
+      <c r="E113" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="F113" s="54" t="s">
+      <c r="F113" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G113" s="53"/>
-      <c r="H113" s="53"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="41"/>
-      <c r="B114" s="52" t="s">
+      <c r="A114" s="40"/>
+      <c r="B114" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C114" s="52" t="s">
+      <c r="C114" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D114" s="52" t="s">
+      <c r="D114" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="E114" s="50" t="s">
+      <c r="E114" s="49" t="s">
         <v>408</v>
       </c>
-      <c r="F114" s="54" t="s">
+      <c r="F114" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
     </row>
     <row r="115" spans="1:8" ht="24">
-      <c r="A115" s="41"/>
-      <c r="B115" s="52" t="s">
+      <c r="A115" s="40"/>
+      <c r="B115" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C115" s="52" t="s">
+      <c r="C115" s="51" t="s">
         <v>411</v>
       </c>
-      <c r="D115" s="52" t="s">
+      <c r="D115" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="E115" s="50" t="s">
+      <c r="E115" s="49" t="s">
         <v>410</v>
       </c>
-      <c r="F115" s="54" t="s">
+      <c r="F115" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G115" s="53"/>
-      <c r="H115" s="53"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
     </row>
     <row r="116" spans="1:8" ht="36">
-      <c r="A116" s="41"/>
-      <c r="B116" s="52" t="s">
+      <c r="A116" s="40"/>
+      <c r="B116" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C116" s="52" t="s">
+      <c r="C116" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D116" s="52" t="s">
+      <c r="D116" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="E116" s="50" t="s">
+      <c r="E116" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="F116" s="54" t="s">
+      <c r="F116" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="52"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="41"/>
-      <c r="B117" s="52" t="s">
+      <c r="A117" s="40"/>
+      <c r="B117" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C117" s="52" t="s">
+      <c r="C117" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="D117" s="52" t="s">
+      <c r="D117" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="E117" s="50" t="s">
+      <c r="E117" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="F117" s="54" t="s">
+      <c r="F117" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="52"/>
     </row>
     <row r="118" spans="1:8" ht="24">
-      <c r="A118" s="41"/>
-      <c r="B118" s="52" t="s">
+      <c r="A118" s="40"/>
+      <c r="B118" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C118" s="52" t="s">
+      <c r="C118" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D118" s="52" t="s">
+      <c r="D118" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="E118" s="50" t="s">
+      <c r="E118" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="F118" s="54" t="s">
+      <c r="F118" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
     </row>
     <row r="119" spans="1:8" ht="24">
-      <c r="A119" s="41"/>
-      <c r="B119" s="52" t="s">
+      <c r="A119" s="40"/>
+      <c r="B119" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="C119" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="D119" s="52" t="s">
+      <c r="D119" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="E119" s="50" t="s">
+      <c r="E119" s="49" t="s">
         <v>419</v>
       </c>
-      <c r="F119" s="54" t="s">
+      <c r="F119" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
     </row>
     <row r="120" spans="1:8" ht="24">
-      <c r="A120" s="41"/>
-      <c r="B120" s="52" t="s">
+      <c r="A120" s="40"/>
+      <c r="B120" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="52" t="s">
+      <c r="C120" s="51" t="s">
         <v>423</v>
       </c>
-      <c r="D120" s="52" t="s">
+      <c r="D120" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E120" s="50" t="s">
+      <c r="E120" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="F120" s="54" t="s">
+      <c r="F120" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
     </row>
     <row r="121" spans="1:8" ht="48">
-      <c r="A121" s="41"/>
-      <c r="B121" s="52" t="s">
+      <c r="A121" s="40"/>
+      <c r="B121" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="C121" s="52" t="s">
+      <c r="C121" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="D121" s="52" t="s">
+      <c r="D121" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="E121" s="50" t="s">
+      <c r="E121" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="F121" s="54" t="s">
+      <c r="F121" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
     </row>
     <row r="122" spans="1:8" ht="24">
-      <c r="A122" s="41"/>
-      <c r="B122" s="52" t="s">
+      <c r="A122" s="40"/>
+      <c r="B122" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="C122" s="52" t="s">
+      <c r="C122" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D122" s="52" t="s">
+      <c r="D122" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="E122" s="50" t="s">
+      <c r="E122" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="F122" s="54" t="s">
+      <c r="F122" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
     </row>
     <row r="123" spans="1:8" ht="24">
-      <c r="A123" s="41"/>
-      <c r="B123" s="52" t="s">
+      <c r="A123" s="40"/>
+      <c r="B123" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="C123" s="52" t="s">
+      <c r="C123" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="D123" s="52" t="s">
+      <c r="D123" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="E123" s="50" t="s">
+      <c r="E123" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="F123" s="54" t="s">
+      <c r="F123" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
     </row>
     <row r="124" spans="1:8" ht="24">
-      <c r="A124" s="41"/>
-      <c r="B124" s="52" t="s">
+      <c r="A124" s="40"/>
+      <c r="B124" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="C124" s="52" t="s">
+      <c r="C124" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="D124" s="52" t="s">
+      <c r="D124" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="E124" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="F124" s="54" t="s">
+      <c r="F124" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
     </row>
     <row r="125" spans="1:8" ht="36">
-      <c r="A125" s="41"/>
-      <c r="B125" s="52" t="s">
+      <c r="A125" s="40"/>
+      <c r="B125" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="C125" s="52" t="s">
+      <c r="C125" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D125" s="52" t="s">
+      <c r="D125" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="E125" s="50" t="s">
+      <c r="E125" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="F125" s="54" t="s">
+      <c r="F125" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G125" s="53"/>
-      <c r="H125" s="53"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
     </row>
     <row r="126" spans="1:8" ht="24">
-      <c r="A126" s="41"/>
-      <c r="B126" s="52" t="s">
+      <c r="A126" s="40"/>
+      <c r="B126" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="C126" s="52" t="s">
+      <c r="C126" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D126" s="52" t="s">
+      <c r="D126" s="51" t="s">
         <v>438</v>
       </c>
-      <c r="E126" s="50" t="s">
+      <c r="E126" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="F126" s="54" t="s">
+      <c r="F126" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
     </row>
     <row r="127" spans="1:8" ht="24">
-      <c r="A127" s="41"/>
-      <c r="B127" s="52" t="s">
+      <c r="A127" s="40"/>
+      <c r="B127" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C127" s="52" t="s">
+      <c r="C127" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D127" s="52" t="s">
+      <c r="D127" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="E127" s="50" t="s">
+      <c r="E127" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="F127" s="54" t="s">
+      <c r="F127" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
     </row>
     <row r="128" spans="1:8" ht="24">
-      <c r="A128" s="41"/>
-      <c r="B128" s="52" t="s">
+      <c r="A128" s="40"/>
+      <c r="B128" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C128" s="52" t="s">
+      <c r="C128" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D128" s="52" t="s">
+      <c r="D128" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="E128" s="50" t="s">
+      <c r="E128" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="F128" s="54" t="s">
+      <c r="F128" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G128" s="53"/>
-      <c r="H128" s="53"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="41"/>
-      <c r="B129" s="52" t="s">
+      <c r="A129" s="40"/>
+      <c r="B129" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="C129" s="52" t="s">
+      <c r="C129" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D129" s="52" t="s">
+      <c r="D129" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="E129" s="50" t="s">
+      <c r="E129" s="49" t="s">
         <v>445</v>
       </c>
-      <c r="F129" s="54" t="s">
+      <c r="F129" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="52"/>
     </row>
     <row r="130" spans="1:8" ht="24">
-      <c r="A130" s="41"/>
-      <c r="B130" s="52" t="s">
+      <c r="A130" s="40"/>
+      <c r="B130" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="C130" s="52" t="s">
+      <c r="C130" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="D130" s="52" t="s">
+      <c r="D130" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="E130" s="50" t="s">
+      <c r="E130" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="F130" s="54" t="s">
+      <c r="F130" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G130" s="53"/>
-      <c r="H130" s="53"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
     </row>
     <row r="131" spans="1:8" ht="24">
-      <c r="A131" s="41"/>
-      <c r="B131" s="52" t="s">
+      <c r="A131" s="40"/>
+      <c r="B131" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="C131" s="52" t="s">
+      <c r="C131" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D131" s="52" t="s">
+      <c r="D131" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="E131" s="50" t="s">
+      <c r="E131" s="49" t="s">
         <v>450</v>
       </c>
-      <c r="F131" s="54" t="s">
+      <c r="F131" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G131" s="53"/>
-      <c r="H131" s="53"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
     </row>
     <row r="132" spans="1:8" ht="24">
-      <c r="A132" s="41"/>
-      <c r="B132" s="52" t="s">
+      <c r="A132" s="40"/>
+      <c r="B132" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="C132" s="52" t="s">
+      <c r="C132" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="D132" s="52" t="s">
+      <c r="D132" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E132" s="50" t="s">
+      <c r="E132" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="F132" s="54" t="s">
+      <c r="F132" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
     </row>
     <row r="133" spans="1:8" ht="36">
-      <c r="A133" s="41"/>
-      <c r="B133" s="52" t="s">
+      <c r="A133" s="40"/>
+      <c r="B133" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C133" s="52" t="s">
+      <c r="C133" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D133" s="52" t="s">
+      <c r="D133" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="E133" s="50" t="s">
+      <c r="E133" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="F133" s="54" t="s">
+      <c r="F133" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="41"/>
-      <c r="B134" s="52" t="s">
+      <c r="A134" s="40"/>
+      <c r="B134" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C134" s="52" t="s">
+      <c r="C134" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D134" s="52" t="s">
+      <c r="D134" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="E134" s="50" t="s">
+      <c r="E134" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="F134" s="54" t="s">
+      <c r="F134" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
     </row>
     <row r="135" spans="1:8" ht="24">
-      <c r="A135" s="41"/>
-      <c r="B135" s="52" t="s">
+      <c r="A135" s="40"/>
+      <c r="B135" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C135" s="52" t="s">
+      <c r="C135" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D135" s="52" t="s">
+      <c r="D135" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="E135" s="50" t="s">
+      <c r="E135" s="49" t="s">
         <v>459</v>
       </c>
-      <c r="F135" s="54" t="s">
+      <c r="F135" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G135" s="53"/>
-      <c r="H135" s="53"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
     </row>
     <row r="136" spans="1:8" ht="24">
-      <c r="A136" s="41"/>
-      <c r="B136" s="52" t="s">
+      <c r="A136" s="40"/>
+      <c r="B136" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C136" s="52" t="s">
+      <c r="C136" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D136" s="52" t="s">
+      <c r="D136" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="E136" s="50" t="s">
+      <c r="E136" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="F136" s="54" t="s">
+      <c r="F136" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G136" s="53"/>
-      <c r="H136" s="53"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="41"/>
-      <c r="B137" s="52" t="s">
+      <c r="A137" s="40"/>
+      <c r="B137" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C137" s="52" t="s">
+      <c r="C137" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="D137" s="52" t="s">
+      <c r="D137" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="E137" s="50" t="s">
+      <c r="E137" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="F137" s="54" t="s">
+      <c r="F137" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G137" s="53"/>
-      <c r="H137" s="53"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="52"/>
     </row>
     <row r="138" spans="1:8" ht="24">
-      <c r="A138" s="41"/>
-      <c r="B138" s="52" t="s">
+      <c r="A138" s="40"/>
+      <c r="B138" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C138" s="52" t="s">
+      <c r="C138" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="D138" s="52" t="s">
+      <c r="D138" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="E138" s="50" t="s">
+      <c r="E138" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="F138" s="54" t="s">
+      <c r="F138" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G138" s="53"/>
-      <c r="H138" s="53"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
     </row>
     <row r="139" spans="1:8" ht="24">
-      <c r="A139" s="41"/>
-      <c r="B139" s="52" t="s">
+      <c r="A139" s="40"/>
+      <c r="B139" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C139" s="52" t="s">
+      <c r="C139" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="D139" s="52" t="s">
+      <c r="D139" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="E139" s="50" t="s">
+      <c r="E139" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="F139" s="54" t="s">
+      <c r="F139" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G139" s="53"/>
-      <c r="H139" s="53"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52"/>
     </row>
     <row r="140" spans="1:8" ht="36">
-      <c r="A140" s="41"/>
-      <c r="B140" s="52" t="s">
+      <c r="A140" s="40"/>
+      <c r="B140" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C140" s="52" t="s">
+      <c r="C140" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D140" s="52" t="s">
+      <c r="D140" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="E140" s="50" t="s">
+      <c r="E140" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="F140" s="54" t="s">
+      <c r="F140" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G140" s="53"/>
-      <c r="H140" s="53"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
     </row>
     <row r="141" spans="1:8" ht="24">
-      <c r="A141" s="41"/>
-      <c r="B141" s="52" t="s">
+      <c r="A141" s="40"/>
+      <c r="B141" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C141" s="52" t="s">
+      <c r="C141" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D141" s="52" t="s">
+      <c r="D141" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="E141" s="50" t="s">
+      <c r="E141" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="F141" s="54" t="s">
+      <c r="F141" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G141" s="53"/>
-      <c r="H141" s="53"/>
+      <c r="G141" s="52"/>
+      <c r="H141" s="52"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="41"/>
-      <c r="B142" s="52" t="s">
+      <c r="A142" s="40"/>
+      <c r="B142" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C142" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="D142" s="52" t="s">
+      <c r="D142" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="E142" s="50" t="s">
+      <c r="E142" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="F142" s="54" t="s">
+      <c r="F142" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G142" s="53"/>
-      <c r="H142" s="53"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
     </row>
     <row r="143" spans="1:8" ht="24">
-      <c r="A143" s="41"/>
-      <c r="B143" s="52" t="s">
+      <c r="A143" s="40"/>
+      <c r="B143" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="52" t="s">
+      <c r="C143" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D143" s="52" t="s">
+      <c r="D143" s="51" t="s">
         <v>473</v>
       </c>
-      <c r="E143" s="50" t="s">
+      <c r="E143" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F143" s="54" t="s">
+      <c r="F143" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G143" s="53"/>
-      <c r="H143" s="53"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
     </row>
     <row r="144" spans="1:8" ht="36">
-      <c r="A144" s="41"/>
-      <c r="B144" s="52" t="s">
+      <c r="A144" s="40"/>
+      <c r="B144" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C144" s="52" t="s">
+      <c r="C144" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="D144" s="52" t="s">
+      <c r="D144" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="50" t="s">
+      <c r="E144" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="F144" s="54" t="s">
+      <c r="F144" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="G144" s="53"/>
-      <c r="H144" s="53"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E88">
@@ -5687,7 +5688,7 @@
     <hyperlink ref="E90" r:id="rId144" display="http://bit.ly/harvarddatasciencevideos"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="40" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="55" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -5887,15 +5888,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
